--- a/Code/Results/Cases/Case_1_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_50/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8947143931736057</v>
+        <v>0.8947143931736071</v>
       </c>
       <c r="D2">
         <v>1.01678227861758</v>
       </c>
       <c r="E2">
-        <v>0.9173757042867547</v>
+        <v>0.9173757042867561</v>
       </c>
       <c r="F2">
-        <v>0.9508330708629636</v>
+        <v>0.9508330708629645</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041807031740017</v>
+        <v>1.041807031740018</v>
       </c>
       <c r="J2">
-        <v>0.9205751745889905</v>
+        <v>0.9205751745889919</v>
       </c>
       <c r="K2">
-        <v>1.028012657801221</v>
+        <v>1.028012657801222</v>
       </c>
       <c r="L2">
-        <v>0.9301202113089556</v>
+        <v>0.9301202113089572</v>
       </c>
       <c r="M2">
-        <v>0.963022709734013</v>
+        <v>0.9630227097340137</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9173478664449394</v>
+        <v>0.9173478664449355</v>
       </c>
       <c r="D3">
-        <v>1.024426219197392</v>
+        <v>1.024426219197391</v>
       </c>
       <c r="E3">
-        <v>0.9367040002419388</v>
+        <v>0.9367040002419351</v>
       </c>
       <c r="F3">
-        <v>0.9679352566534304</v>
+        <v>0.9679352566534274</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045923566526647</v>
+        <v>1.045923566526646</v>
       </c>
       <c r="J3">
-        <v>0.9403767654227023</v>
+        <v>0.9403767654226988</v>
       </c>
       <c r="K3">
-        <v>1.034755817564182</v>
+        <v>1.034755817564181</v>
       </c>
       <c r="L3">
-        <v>0.9482163848484717</v>
+        <v>0.9482163848484683</v>
       </c>
       <c r="M3">
-        <v>0.9789955454949806</v>
+        <v>0.9789955454949778</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9307031651756762</v>
+        <v>0.9307031651756789</v>
       </c>
       <c r="D4">
-        <v>1.029006236726175</v>
+        <v>1.029006236726176</v>
       </c>
       <c r="E4">
-        <v>0.9481284750427702</v>
+        <v>0.9481284750427729</v>
       </c>
       <c r="F4">
-        <v>0.9780782826052197</v>
+        <v>0.9780782826052211</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048355142464736</v>
+        <v>1.048355142464737</v>
       </c>
       <c r="J4">
-        <v>0.9520624699328452</v>
+        <v>0.9520624699328477</v>
       </c>
       <c r="K4">
-        <v>1.038766746118567</v>
+        <v>1.038766746118568</v>
       </c>
       <c r="L4">
-        <v>0.9588960650010834</v>
+        <v>0.9588960650010858</v>
       </c>
       <c r="M4">
-        <v>0.9884486876955777</v>
+        <v>0.9884486876955796</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9360607908843136</v>
+        <v>0.9360607908843146</v>
       </c>
       <c r="D5">
-        <v>1.030856610441485</v>
+        <v>1.030856610441486</v>
       </c>
       <c r="E5">
-        <v>0.9527150097249115</v>
+        <v>0.9527150097249124</v>
       </c>
       <c r="F5">
-        <v>0.9821563534998715</v>
+        <v>0.9821563534998718</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049329615614721</v>
+        <v>1.049329615614722</v>
       </c>
       <c r="J5">
-        <v>0.9567499185223033</v>
+        <v>0.9567499185223044</v>
       </c>
       <c r="K5">
-        <v>1.040380725291699</v>
+        <v>1.0403807252917</v>
       </c>
       <c r="L5">
-        <v>0.963179810849125</v>
+        <v>0.9631798108491259</v>
       </c>
       <c r="M5">
-        <v>0.9922448725038324</v>
+        <v>0.9922448725038329</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9369465212313239</v>
+        <v>0.9369465212313236</v>
       </c>
       <c r="D6">
         <v>1.031163195627387</v>
       </c>
       <c r="E6">
-        <v>0.953473438868594</v>
+        <v>0.9534734388685939</v>
       </c>
       <c r="F6">
-        <v>0.9828310015131865</v>
+        <v>0.9828310015131864</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.04949061966368</v>
       </c>
       <c r="J6">
-        <v>0.9575248129446711</v>
+        <v>0.9575248129446708</v>
       </c>
       <c r="K6">
-        <v>1.04064777485256</v>
+        <v>1.040647774852559</v>
       </c>
       <c r="L6">
-        <v>0.9638879525959638</v>
+        <v>0.9638879525959637</v>
       </c>
       <c r="M6">
-        <v>0.9928726284467001</v>
+        <v>0.9928726284467002</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.930775706363974</v>
+        <v>0.9307757063639734</v>
       </c>
       <c r="D7">
         <v>1.029031242444997</v>
       </c>
       <c r="E7">
-        <v>0.9481905632276003</v>
+        <v>0.9481905632275994</v>
       </c>
       <c r="F7">
-        <v>0.9781334662869234</v>
+        <v>0.9781334662869228</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.048368342408978</v>
       </c>
       <c r="J7">
-        <v>0.9521259394918267</v>
+        <v>0.9521259394918262</v>
       </c>
       <c r="K7">
         <v>1.038788582435772</v>
       </c>
       <c r="L7">
-        <v>0.9589540692218639</v>
+        <v>0.9589540692218631</v>
       </c>
       <c r="M7">
-        <v>0.9885000746529318</v>
+        <v>0.9885000746529313</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9026675177399243</v>
+        <v>0.9026675177399215</v>
       </c>
       <c r="D8">
-        <v>1.019450270879391</v>
+        <v>1.01945027087939</v>
       </c>
       <c r="E8">
-        <v>0.9241622495814973</v>
+        <v>0.9241622495814948</v>
       </c>
       <c r="F8">
-        <v>0.9568287595503209</v>
+        <v>0.9568287595503193</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043251802180577</v>
+        <v>1.043251802180576</v>
       </c>
       <c r="J8">
-        <v>0.9275323394292695</v>
+        <v>0.927532339429267</v>
       </c>
       <c r="K8">
-        <v>1.030373066837306</v>
+        <v>1.030373066837304</v>
       </c>
       <c r="L8">
-        <v>0.9364779018102907</v>
+        <v>0.9364779018102887</v>
       </c>
       <c r="M8">
-        <v>0.9686271070001887</v>
+        <v>0.9686271070001872</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,19 +684,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.8394620419665993</v>
+        <v>0.8394620419665985</v>
       </c>
       <c r="D9">
-        <v>0.9988658542901705</v>
+        <v>0.9988658542901704</v>
       </c>
       <c r="E9">
-        <v>0.8704210690299602</v>
+        <v>0.8704210690299594</v>
       </c>
       <c r="F9">
-        <v>0.9096941020707979</v>
+        <v>0.9096941020707967</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.03190004334353</v>
       </c>
       <c r="J9">
-        <v>0.8723089826648773</v>
+        <v>0.8723089826648768</v>
       </c>
       <c r="K9">
         <v>1.011977359056684</v>
       </c>
       <c r="L9">
-        <v>0.8860361484464092</v>
+        <v>0.8860361484464084</v>
       </c>
       <c r="M9">
-        <v>0.9244445605944025</v>
+        <v>0.9244445605944016</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7763425635135056</v>
+        <v>0.7763425635135055</v>
       </c>
       <c r="D10">
-        <v>0.9799625183202165</v>
+        <v>0.9799625183202173</v>
       </c>
       <c r="E10">
         <v>0.8173369318329489</v>
       </c>
       <c r="F10">
-        <v>0.8641427823344526</v>
+        <v>0.8641427823344532</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.021081186738469</v>
       </c>
       <c r="J10">
-        <v>0.8174499048860508</v>
+        <v>0.8174499048860507</v>
       </c>
       <c r="K10">
-        <v>0.9947032320533938</v>
+        <v>0.9947032320533946</v>
       </c>
       <c r="L10">
-        <v>0.8360294425633981</v>
+        <v>0.8360294425633978</v>
       </c>
       <c r="M10">
-        <v>0.8814906945486426</v>
+        <v>0.8814906945486431</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7333041987039366</v>
+        <v>0.7333041987039364</v>
       </c>
       <c r="D11">
-        <v>0.9681914320249234</v>
+        <v>0.9681914320249239</v>
       </c>
       <c r="E11">
-        <v>0.7816098984136574</v>
+        <v>0.7816098984136571</v>
       </c>
       <c r="F11">
-        <v>0.834242991890104</v>
+        <v>0.8342429918901038</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.014148063323626</v>
       </c>
       <c r="J11">
-        <v>0.780324272104889</v>
+        <v>0.7803242721048886</v>
       </c>
       <c r="K11">
-        <v>0.9837392197861162</v>
+        <v>0.9837392197861164</v>
       </c>
       <c r="L11">
-        <v>0.8022885723922779</v>
+        <v>0.8022885723922778</v>
       </c>
       <c r="M11">
-        <v>0.8531533024914085</v>
+        <v>0.8531533024914083</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7095153941840617</v>
+        <v>0.7095153941840682</v>
       </c>
       <c r="D12">
-        <v>0.9621135573172427</v>
+        <v>0.962113557317244</v>
       </c>
       <c r="E12">
-        <v>0.7620690989320118</v>
+        <v>0.7620690989320178</v>
       </c>
       <c r="F12">
-        <v>0.8182023190578004</v>
+        <v>0.8182023190578045</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.010502018359103</v>
+        <v>1.010502018359104</v>
       </c>
       <c r="J12">
-        <v>0.759934957821195</v>
+        <v>0.7599349578212007</v>
       </c>
       <c r="K12">
-        <v>0.9780044684081889</v>
+        <v>0.9780044684081902</v>
       </c>
       <c r="L12">
-        <v>0.7838060707035129</v>
+        <v>0.7838060707035184</v>
       </c>
       <c r="M12">
-        <v>0.8378972418906049</v>
+        <v>0.8378972418906089</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7153496524298052</v>
+        <v>0.7153496524298072</v>
       </c>
       <c r="D13">
-        <v>0.9635748294813482</v>
+        <v>0.963574829481349</v>
       </c>
       <c r="E13">
-        <v>0.7668463365631911</v>
+        <v>0.7668463365631929</v>
       </c>
       <c r="F13">
-        <v>0.822101606924072</v>
+        <v>0.8221016069240731</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.011383085148431</v>
       </c>
       <c r="J13">
-        <v>0.7649256817714907</v>
+        <v>0.7649256817714926</v>
       </c>
       <c r="K13">
-        <v>0.979388299437549</v>
+        <v>0.9793882994375498</v>
       </c>
       <c r="L13">
-        <v>0.7883264554934039</v>
+        <v>0.7883264554934056</v>
       </c>
       <c r="M13">
-        <v>0.8416095812112645</v>
+        <v>0.8416095812112659</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7316032681134189</v>
+        <v>0.7316032681134109</v>
       </c>
       <c r="D14">
-        <v>0.9677464356595736</v>
+        <v>0.9677464356595723</v>
       </c>
       <c r="E14">
-        <v>0.7802074163648371</v>
+        <v>0.7802074163648302</v>
       </c>
       <c r="F14">
-        <v>0.8330838728729308</v>
+        <v>0.8330838728729256</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.013882735436109</v>
+        <v>1.013882735436108</v>
       </c>
       <c r="J14">
-        <v>0.7788630082882628</v>
+        <v>0.7788630082882558</v>
       </c>
       <c r="K14">
-        <v>0.9833211710243397</v>
+        <v>0.9833211710243378</v>
       </c>
       <c r="L14">
-        <v>0.8009627156179162</v>
+        <v>0.8009627156179093</v>
       </c>
       <c r="M14">
-        <v>0.8520522205828083</v>
+        <v>0.8520522205828032</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7401486060261802</v>
+        <v>0.7401486060261835</v>
       </c>
       <c r="D15">
-        <v>0.9699979765392274</v>
+        <v>0.9699979765392276</v>
       </c>
       <c r="E15">
-        <v>0.7872611586322238</v>
+        <v>0.7872611586322269</v>
       </c>
       <c r="F15">
-        <v>0.8389254054745138</v>
+        <v>0.8389254054745157</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015222691437875</v>
+        <v>1.015222691437874</v>
       </c>
       <c r="J15">
-        <v>0.7862092471364137</v>
+        <v>0.7862092471364168</v>
       </c>
       <c r="K15">
-        <v>0.9854335508711088</v>
+        <v>0.985433550871109</v>
       </c>
       <c r="L15">
-        <v>0.8076300406669474</v>
+        <v>0.8076300406669505</v>
       </c>
       <c r="M15">
-        <v>0.8575992456861665</v>
+        <v>0.8575992456861683</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7786569011995997</v>
+        <v>0.7786569011996007</v>
       </c>
       <c r="D16">
-        <v>0.9806224599277157</v>
+        <v>0.980622459927715</v>
       </c>
       <c r="E16">
-        <v>0.8192701218661805</v>
+        <v>0.8192701218661814</v>
       </c>
       <c r="F16">
-        <v>0.8657797204547691</v>
+        <v>0.8657797204547694</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,13 +971,13 @@
         <v>1.021465249725094</v>
       </c>
       <c r="J16">
-        <v>0.8194537255755709</v>
+        <v>0.8194537255755717</v>
       </c>
       <c r="K16">
-        <v>0.995312887160151</v>
+        <v>0.9953128871601504</v>
       </c>
       <c r="L16">
-        <v>0.8378532783359242</v>
+        <v>0.8378532783359248</v>
       </c>
       <c r="M16">
         <v>0.8830386700626697</v>
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7974030975858758</v>
+        <v>0.7974030975858722</v>
       </c>
       <c r="D17">
-        <v>0.9860645323068874</v>
+        <v>0.9860645323068873</v>
       </c>
       <c r="E17">
-        <v>0.8349690359891538</v>
+        <v>0.8349690359891507</v>
       </c>
       <c r="F17">
-        <v>0.8791385042872459</v>
+        <v>0.879138504287244</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.024614487763295</v>
       </c>
       <c r="J17">
-        <v>0.8357086517556241</v>
+        <v>0.8357086517556209</v>
       </c>
       <c r="K17">
         <v>1.000321393753435</v>
       </c>
       <c r="L17">
-        <v>0.8526568174399141</v>
+        <v>0.8526568174399112</v>
       </c>
       <c r="M17">
-        <v>0.8956589629525068</v>
+        <v>0.8956589629525051</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8071887190321541</v>
+        <v>0.8071887190321556</v>
       </c>
       <c r="D18">
-        <v>0.9889718306960249</v>
+        <v>0.9889718306960253</v>
       </c>
       <c r="E18">
-        <v>0.8431906493375189</v>
+        <v>0.8431906493375203</v>
       </c>
       <c r="F18">
-        <v>0.8861789734091492</v>
+        <v>0.8861789734091503</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.026284050839015</v>
       </c>
       <c r="J18">
-        <v>0.8442094261347932</v>
+        <v>0.8442094261347945</v>
       </c>
       <c r="K18">
-        <v>1.002983679258173</v>
+        <v>1.002983679258174</v>
       </c>
       <c r="L18">
-        <v>0.8604041873317061</v>
+        <v>0.8604041873317073</v>
       </c>
       <c r="M18">
-        <v>0.9023014607389398</v>
+        <v>0.9023014607389409</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8103697142303237</v>
+        <v>0.8103697142303221</v>
       </c>
       <c r="D19">
-        <v>0.9899264523302246</v>
+        <v>0.9899264523302248</v>
       </c>
       <c r="E19">
-        <v>0.8458669416265137</v>
+        <v>0.8458669416265124</v>
       </c>
       <c r="F19">
-        <v>0.8884770274250484</v>
+        <v>0.8884770274250482</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.026830331932375</v>
       </c>
       <c r="J19">
-        <v>0.8469748689588941</v>
+        <v>0.8469748689588925</v>
       </c>
       <c r="K19">
         <v>1.003855872939162</v>
       </c>
       <c r="L19">
-        <v>0.8629252923187545</v>
+        <v>0.8629252923187531</v>
       </c>
       <c r="M19">
-        <v>0.9044683262617196</v>
+        <v>0.9044683262617191</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7955212052026274</v>
+        <v>0.7955212052026249</v>
       </c>
       <c r="D20">
-        <v>0.9855105774415633</v>
+        <v>0.9855105774415623</v>
       </c>
       <c r="E20">
-        <v>0.8333899521530476</v>
+        <v>0.8333899521530456</v>
       </c>
       <c r="F20">
-        <v>0.8777896748048736</v>
+        <v>0.8777896748048715</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024295363535468</v>
+        <v>1.024295363535467</v>
       </c>
       <c r="J20">
-        <v>0.8340750227638664</v>
+        <v>0.834075022763864</v>
       </c>
       <c r="K20">
-        <v>0.9998130822710767</v>
+        <v>0.9998130822710759</v>
       </c>
       <c r="L20">
-        <v>0.8511683941029535</v>
+        <v>0.8511683941029514</v>
       </c>
       <c r="M20">
-        <v>0.8943856939807263</v>
+        <v>0.8943856939807242</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7271765024826408</v>
+        <v>0.7271765024826409</v>
       </c>
       <c r="D21">
-        <v>0.9665957503759792</v>
+        <v>0.9665957503759791</v>
       </c>
       <c r="E21">
-        <v>0.776561076545048</v>
+        <v>0.7765610765450485</v>
       </c>
       <c r="F21">
-        <v>0.830075797198441</v>
+        <v>0.8300757971984414</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.013195485349134</v>
       </c>
       <c r="J21">
-        <v>0.7750623557566592</v>
+        <v>0.7750623557566593</v>
       </c>
       <c r="K21">
         <v>0.9822388700419884</v>
       </c>
       <c r="L21">
-        <v>0.7975151159313396</v>
+        <v>0.7975151159313399</v>
       </c>
       <c r="M21">
-        <v>0.8491938137992514</v>
+        <v>0.8491938137992517</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7271765024826408</v>
+        <v>0.7271765024826409</v>
       </c>
       <c r="D22">
-        <v>0.9665957503759792</v>
+        <v>0.9665957503759791</v>
       </c>
       <c r="E22">
-        <v>0.776561076545048</v>
+        <v>0.7765610765450485</v>
       </c>
       <c r="F22">
-        <v>0.830075797198441</v>
+        <v>0.8300757971984414</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.013195485349134</v>
       </c>
       <c r="J22">
-        <v>0.7750623557566592</v>
+        <v>0.7750623557566593</v>
       </c>
       <c r="K22">
         <v>0.9822388700419884</v>
       </c>
       <c r="L22">
-        <v>0.7975151159313396</v>
+        <v>0.7975151159313399</v>
       </c>
       <c r="M22">
-        <v>0.8491938137992514</v>
+        <v>0.8491938137992517</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.6872780869238609</v>
+        <v>0.6872780869238494</v>
       </c>
       <c r="D23">
-        <v>0.9567234338291486</v>
+        <v>0.9567234338291462</v>
       </c>
       <c r="E23">
-        <v>0.7439590127835568</v>
+        <v>0.743959012783547</v>
       </c>
       <c r="F23">
-        <v>0.8035597858247132</v>
+        <v>0.8035597858247062</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.007225700660184</v>
+        <v>1.007225700660183</v>
       </c>
       <c r="J23">
-        <v>0.7409768078672277</v>
+        <v>0.7409768078672176</v>
       </c>
       <c r="K23">
-        <v>0.9728698537594794</v>
+        <v>0.9728698537594769</v>
       </c>
       <c r="L23">
-        <v>0.7666582108053543</v>
+        <v>0.7666582108053452</v>
       </c>
       <c r="M23">
-        <v>0.8239331324915004</v>
+        <v>0.8239331324914932</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,19 +1254,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.7963749458104546</v>
+        <v>0.7963749458104555</v>
       </c>
       <c r="D24">
-        <v>0.9857616769793567</v>
+        <v>0.9857616769793563</v>
       </c>
       <c r="E24">
-        <v>0.8341062375197852</v>
+        <v>0.8341062375197863</v>
       </c>
       <c r="F24">
-        <v>0.878401376783094</v>
+        <v>0.8784013767830944</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.024440057921084</v>
       </c>
       <c r="J24">
-        <v>0.8348160877644977</v>
+        <v>0.8348160877644986</v>
       </c>
       <c r="K24">
         <v>1.000043534033835</v>
       </c>
       <c r="L24">
-        <v>0.8518435719402599</v>
+        <v>0.8518435719402608</v>
       </c>
       <c r="M24">
-        <v>0.894963156227753</v>
+        <v>0.8949631562277534</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.858146055949559</v>
+        <v>0.8581460559495608</v>
       </c>
       <c r="D25">
         <v>1.004794989022401</v>
       </c>
       <c r="E25">
-        <v>0.8862569835800127</v>
+        <v>0.8862569835800146</v>
       </c>
       <c r="F25">
-        <v>0.9234937594265221</v>
+        <v>0.9234937594265235</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.035216759373915</v>
       </c>
       <c r="J25">
-        <v>0.8886130333912962</v>
+        <v>0.8886130333912979</v>
       </c>
       <c r="K25">
-        <v>1.017319322213617</v>
+        <v>1.017319322213618</v>
       </c>
       <c r="L25">
-        <v>0.9009213578061265</v>
+        <v>0.900921357806128</v>
       </c>
       <c r="M25">
-        <v>0.9374084500511664</v>
+        <v>0.9374084500511676</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_50/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8947143931736071</v>
+        <v>0.8947143931736057</v>
       </c>
       <c r="D2">
         <v>1.01678227861758</v>
       </c>
       <c r="E2">
-        <v>0.9173757042867561</v>
+        <v>0.9173757042867547</v>
       </c>
       <c r="F2">
-        <v>0.9508330708629645</v>
+        <v>0.9508330708629636</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041807031740018</v>
+        <v>1.041807031740017</v>
       </c>
       <c r="J2">
-        <v>0.9205751745889919</v>
+        <v>0.9205751745889905</v>
       </c>
       <c r="K2">
-        <v>1.028012657801222</v>
+        <v>1.028012657801221</v>
       </c>
       <c r="L2">
-        <v>0.9301202113089572</v>
+        <v>0.9301202113089556</v>
       </c>
       <c r="M2">
-        <v>0.9630227097340137</v>
+        <v>0.963022709734013</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9173478664449355</v>
+        <v>0.9173478664449394</v>
       </c>
       <c r="D3">
-        <v>1.024426219197391</v>
+        <v>1.024426219197392</v>
       </c>
       <c r="E3">
-        <v>0.9367040002419351</v>
+        <v>0.9367040002419388</v>
       </c>
       <c r="F3">
-        <v>0.9679352566534274</v>
+        <v>0.9679352566534304</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045923566526646</v>
+        <v>1.045923566526647</v>
       </c>
       <c r="J3">
-        <v>0.9403767654226988</v>
+        <v>0.9403767654227023</v>
       </c>
       <c r="K3">
-        <v>1.034755817564181</v>
+        <v>1.034755817564182</v>
       </c>
       <c r="L3">
-        <v>0.9482163848484683</v>
+        <v>0.9482163848484717</v>
       </c>
       <c r="M3">
-        <v>0.9789955454949778</v>
+        <v>0.9789955454949806</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9307031651756789</v>
+        <v>0.9307031651756762</v>
       </c>
       <c r="D4">
-        <v>1.029006236726176</v>
+        <v>1.029006236726175</v>
       </c>
       <c r="E4">
-        <v>0.9481284750427729</v>
+        <v>0.9481284750427702</v>
       </c>
       <c r="F4">
-        <v>0.9780782826052211</v>
+        <v>0.9780782826052197</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048355142464737</v>
+        <v>1.048355142464736</v>
       </c>
       <c r="J4">
-        <v>0.9520624699328477</v>
+        <v>0.9520624699328452</v>
       </c>
       <c r="K4">
-        <v>1.038766746118568</v>
+        <v>1.038766746118567</v>
       </c>
       <c r="L4">
-        <v>0.9588960650010858</v>
+        <v>0.9588960650010834</v>
       </c>
       <c r="M4">
-        <v>0.9884486876955796</v>
+        <v>0.9884486876955777</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9360607908843146</v>
+        <v>0.9360607908843136</v>
       </c>
       <c r="D5">
-        <v>1.030856610441486</v>
+        <v>1.030856610441485</v>
       </c>
       <c r="E5">
-        <v>0.9527150097249124</v>
+        <v>0.9527150097249115</v>
       </c>
       <c r="F5">
-        <v>0.9821563534998718</v>
+        <v>0.9821563534998715</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049329615614722</v>
+        <v>1.049329615614721</v>
       </c>
       <c r="J5">
-        <v>0.9567499185223044</v>
+        <v>0.9567499185223033</v>
       </c>
       <c r="K5">
-        <v>1.0403807252917</v>
+        <v>1.040380725291699</v>
       </c>
       <c r="L5">
-        <v>0.9631798108491259</v>
+        <v>0.963179810849125</v>
       </c>
       <c r="M5">
-        <v>0.9922448725038329</v>
+        <v>0.9922448725038324</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9369465212313236</v>
+        <v>0.9369465212313239</v>
       </c>
       <c r="D6">
         <v>1.031163195627387</v>
       </c>
       <c r="E6">
-        <v>0.9534734388685939</v>
+        <v>0.953473438868594</v>
       </c>
       <c r="F6">
-        <v>0.9828310015131864</v>
+        <v>0.9828310015131865</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.04949061966368</v>
       </c>
       <c r="J6">
-        <v>0.9575248129446708</v>
+        <v>0.9575248129446711</v>
       </c>
       <c r="K6">
-        <v>1.040647774852559</v>
+        <v>1.04064777485256</v>
       </c>
       <c r="L6">
-        <v>0.9638879525959637</v>
+        <v>0.9638879525959638</v>
       </c>
       <c r="M6">
-        <v>0.9928726284467002</v>
+        <v>0.9928726284467001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9307757063639734</v>
+        <v>0.930775706363974</v>
       </c>
       <c r="D7">
         <v>1.029031242444997</v>
       </c>
       <c r="E7">
-        <v>0.9481905632275994</v>
+        <v>0.9481905632276003</v>
       </c>
       <c r="F7">
-        <v>0.9781334662869228</v>
+        <v>0.9781334662869234</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.048368342408978</v>
       </c>
       <c r="J7">
-        <v>0.9521259394918262</v>
+        <v>0.9521259394918267</v>
       </c>
       <c r="K7">
         <v>1.038788582435772</v>
       </c>
       <c r="L7">
-        <v>0.9589540692218631</v>
+        <v>0.9589540692218639</v>
       </c>
       <c r="M7">
-        <v>0.9885000746529313</v>
+        <v>0.9885000746529318</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9026675177399215</v>
+        <v>0.9026675177399243</v>
       </c>
       <c r="D8">
-        <v>1.01945027087939</v>
+        <v>1.019450270879391</v>
       </c>
       <c r="E8">
-        <v>0.9241622495814948</v>
+        <v>0.9241622495814973</v>
       </c>
       <c r="F8">
-        <v>0.9568287595503193</v>
+        <v>0.9568287595503209</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043251802180576</v>
+        <v>1.043251802180577</v>
       </c>
       <c r="J8">
-        <v>0.927532339429267</v>
+        <v>0.9275323394292695</v>
       </c>
       <c r="K8">
-        <v>1.030373066837304</v>
+        <v>1.030373066837306</v>
       </c>
       <c r="L8">
-        <v>0.9364779018102887</v>
+        <v>0.9364779018102907</v>
       </c>
       <c r="M8">
-        <v>0.9686271070001872</v>
+        <v>0.9686271070001887</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,19 +684,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8394620419665985</v>
+        <v>0.8394620419665993</v>
       </c>
       <c r="D9">
-        <v>0.9988658542901704</v>
+        <v>0.9988658542901705</v>
       </c>
       <c r="E9">
-        <v>0.8704210690299594</v>
+        <v>0.8704210690299602</v>
       </c>
       <c r="F9">
-        <v>0.9096941020707967</v>
+        <v>0.9096941020707979</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.03190004334353</v>
       </c>
       <c r="J9">
-        <v>0.8723089826648768</v>
+        <v>0.8723089826648773</v>
       </c>
       <c r="K9">
         <v>1.011977359056684</v>
       </c>
       <c r="L9">
-        <v>0.8860361484464084</v>
+        <v>0.8860361484464092</v>
       </c>
       <c r="M9">
-        <v>0.9244445605944016</v>
+        <v>0.9244445605944025</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7763425635135055</v>
+        <v>0.7763425635135056</v>
       </c>
       <c r="D10">
-        <v>0.9799625183202173</v>
+        <v>0.9799625183202165</v>
       </c>
       <c r="E10">
         <v>0.8173369318329489</v>
       </c>
       <c r="F10">
-        <v>0.8641427823344532</v>
+        <v>0.8641427823344526</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.021081186738469</v>
       </c>
       <c r="J10">
-        <v>0.8174499048860507</v>
+        <v>0.8174499048860508</v>
       </c>
       <c r="K10">
-        <v>0.9947032320533946</v>
+        <v>0.9947032320533938</v>
       </c>
       <c r="L10">
-        <v>0.8360294425633978</v>
+        <v>0.8360294425633981</v>
       </c>
       <c r="M10">
-        <v>0.8814906945486431</v>
+        <v>0.8814906945486426</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7333041987039364</v>
+        <v>0.7333041987039366</v>
       </c>
       <c r="D11">
-        <v>0.9681914320249239</v>
+        <v>0.9681914320249234</v>
       </c>
       <c r="E11">
-        <v>0.7816098984136571</v>
+        <v>0.7816098984136574</v>
       </c>
       <c r="F11">
-        <v>0.8342429918901038</v>
+        <v>0.834242991890104</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.014148063323626</v>
       </c>
       <c r="J11">
-        <v>0.7803242721048886</v>
+        <v>0.780324272104889</v>
       </c>
       <c r="K11">
-        <v>0.9837392197861164</v>
+        <v>0.9837392197861162</v>
       </c>
       <c r="L11">
-        <v>0.8022885723922778</v>
+        <v>0.8022885723922779</v>
       </c>
       <c r="M11">
-        <v>0.8531533024914083</v>
+        <v>0.8531533024914085</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7095153941840682</v>
+        <v>0.7095153941840617</v>
       </c>
       <c r="D12">
-        <v>0.962113557317244</v>
+        <v>0.9621135573172427</v>
       </c>
       <c r="E12">
-        <v>0.7620690989320178</v>
+        <v>0.7620690989320118</v>
       </c>
       <c r="F12">
-        <v>0.8182023190578045</v>
+        <v>0.8182023190578004</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.010502018359104</v>
+        <v>1.010502018359103</v>
       </c>
       <c r="J12">
-        <v>0.7599349578212007</v>
+        <v>0.759934957821195</v>
       </c>
       <c r="K12">
-        <v>0.9780044684081902</v>
+        <v>0.9780044684081889</v>
       </c>
       <c r="L12">
-        <v>0.7838060707035184</v>
+        <v>0.7838060707035129</v>
       </c>
       <c r="M12">
-        <v>0.8378972418906089</v>
+        <v>0.8378972418906049</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7153496524298072</v>
+        <v>0.7153496524298052</v>
       </c>
       <c r="D13">
-        <v>0.963574829481349</v>
+        <v>0.9635748294813482</v>
       </c>
       <c r="E13">
-        <v>0.7668463365631929</v>
+        <v>0.7668463365631911</v>
       </c>
       <c r="F13">
-        <v>0.8221016069240731</v>
+        <v>0.822101606924072</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.011383085148431</v>
       </c>
       <c r="J13">
-        <v>0.7649256817714926</v>
+        <v>0.7649256817714907</v>
       </c>
       <c r="K13">
-        <v>0.9793882994375498</v>
+        <v>0.979388299437549</v>
       </c>
       <c r="L13">
-        <v>0.7883264554934056</v>
+        <v>0.7883264554934039</v>
       </c>
       <c r="M13">
-        <v>0.8416095812112659</v>
+        <v>0.8416095812112645</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7316032681134109</v>
+        <v>0.7316032681134189</v>
       </c>
       <c r="D14">
-        <v>0.9677464356595723</v>
+        <v>0.9677464356595736</v>
       </c>
       <c r="E14">
-        <v>0.7802074163648302</v>
+        <v>0.7802074163648371</v>
       </c>
       <c r="F14">
-        <v>0.8330838728729256</v>
+        <v>0.8330838728729308</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.013882735436108</v>
+        <v>1.013882735436109</v>
       </c>
       <c r="J14">
-        <v>0.7788630082882558</v>
+        <v>0.7788630082882628</v>
       </c>
       <c r="K14">
-        <v>0.9833211710243378</v>
+        <v>0.9833211710243397</v>
       </c>
       <c r="L14">
-        <v>0.8009627156179093</v>
+        <v>0.8009627156179162</v>
       </c>
       <c r="M14">
-        <v>0.8520522205828032</v>
+        <v>0.8520522205828083</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7401486060261835</v>
+        <v>0.7401486060261802</v>
       </c>
       <c r="D15">
-        <v>0.9699979765392276</v>
+        <v>0.9699979765392274</v>
       </c>
       <c r="E15">
-        <v>0.7872611586322269</v>
+        <v>0.7872611586322238</v>
       </c>
       <c r="F15">
-        <v>0.8389254054745157</v>
+        <v>0.8389254054745138</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015222691437874</v>
+        <v>1.015222691437875</v>
       </c>
       <c r="J15">
-        <v>0.7862092471364168</v>
+        <v>0.7862092471364137</v>
       </c>
       <c r="K15">
-        <v>0.985433550871109</v>
+        <v>0.9854335508711088</v>
       </c>
       <c r="L15">
-        <v>0.8076300406669505</v>
+        <v>0.8076300406669474</v>
       </c>
       <c r="M15">
-        <v>0.8575992456861683</v>
+        <v>0.8575992456861665</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7786569011996007</v>
+        <v>0.7786569011995997</v>
       </c>
       <c r="D16">
-        <v>0.980622459927715</v>
+        <v>0.9806224599277157</v>
       </c>
       <c r="E16">
-        <v>0.8192701218661814</v>
+        <v>0.8192701218661805</v>
       </c>
       <c r="F16">
-        <v>0.8657797204547694</v>
+        <v>0.8657797204547691</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,13 +971,13 @@
         <v>1.021465249725094</v>
       </c>
       <c r="J16">
-        <v>0.8194537255755717</v>
+        <v>0.8194537255755709</v>
       </c>
       <c r="K16">
-        <v>0.9953128871601504</v>
+        <v>0.995312887160151</v>
       </c>
       <c r="L16">
-        <v>0.8378532783359248</v>
+        <v>0.8378532783359242</v>
       </c>
       <c r="M16">
         <v>0.8830386700626697</v>
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7974030975858722</v>
+        <v>0.7974030975858758</v>
       </c>
       <c r="D17">
-        <v>0.9860645323068873</v>
+        <v>0.9860645323068874</v>
       </c>
       <c r="E17">
-        <v>0.8349690359891507</v>
+        <v>0.8349690359891538</v>
       </c>
       <c r="F17">
-        <v>0.879138504287244</v>
+        <v>0.8791385042872459</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.024614487763295</v>
       </c>
       <c r="J17">
-        <v>0.8357086517556209</v>
+        <v>0.8357086517556241</v>
       </c>
       <c r="K17">
         <v>1.000321393753435</v>
       </c>
       <c r="L17">
-        <v>0.8526568174399112</v>
+        <v>0.8526568174399141</v>
       </c>
       <c r="M17">
-        <v>0.8956589629525051</v>
+        <v>0.8956589629525068</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8071887190321556</v>
+        <v>0.8071887190321541</v>
       </c>
       <c r="D18">
-        <v>0.9889718306960253</v>
+        <v>0.9889718306960249</v>
       </c>
       <c r="E18">
-        <v>0.8431906493375203</v>
+        <v>0.8431906493375189</v>
       </c>
       <c r="F18">
-        <v>0.8861789734091503</v>
+        <v>0.8861789734091492</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.026284050839015</v>
       </c>
       <c r="J18">
-        <v>0.8442094261347945</v>
+        <v>0.8442094261347932</v>
       </c>
       <c r="K18">
-        <v>1.002983679258174</v>
+        <v>1.002983679258173</v>
       </c>
       <c r="L18">
-        <v>0.8604041873317073</v>
+        <v>0.8604041873317061</v>
       </c>
       <c r="M18">
-        <v>0.9023014607389409</v>
+        <v>0.9023014607389398</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8103697142303221</v>
+        <v>0.8103697142303237</v>
       </c>
       <c r="D19">
-        <v>0.9899264523302248</v>
+        <v>0.9899264523302246</v>
       </c>
       <c r="E19">
-        <v>0.8458669416265124</v>
+        <v>0.8458669416265137</v>
       </c>
       <c r="F19">
-        <v>0.8884770274250482</v>
+        <v>0.8884770274250484</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.026830331932375</v>
       </c>
       <c r="J19">
-        <v>0.8469748689588925</v>
+        <v>0.8469748689588941</v>
       </c>
       <c r="K19">
         <v>1.003855872939162</v>
       </c>
       <c r="L19">
-        <v>0.8629252923187531</v>
+        <v>0.8629252923187545</v>
       </c>
       <c r="M19">
-        <v>0.9044683262617191</v>
+        <v>0.9044683262617196</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7955212052026249</v>
+        <v>0.7955212052026274</v>
       </c>
       <c r="D20">
-        <v>0.9855105774415623</v>
+        <v>0.9855105774415633</v>
       </c>
       <c r="E20">
-        <v>0.8333899521530456</v>
+        <v>0.8333899521530476</v>
       </c>
       <c r="F20">
-        <v>0.8777896748048715</v>
+        <v>0.8777896748048736</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024295363535467</v>
+        <v>1.024295363535468</v>
       </c>
       <c r="J20">
-        <v>0.834075022763864</v>
+        <v>0.8340750227638664</v>
       </c>
       <c r="K20">
-        <v>0.9998130822710759</v>
+        <v>0.9998130822710767</v>
       </c>
       <c r="L20">
-        <v>0.8511683941029514</v>
+        <v>0.8511683941029535</v>
       </c>
       <c r="M20">
-        <v>0.8943856939807242</v>
+        <v>0.8943856939807263</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7271765024826409</v>
+        <v>0.7271765024826408</v>
       </c>
       <c r="D21">
-        <v>0.9665957503759791</v>
+        <v>0.9665957503759792</v>
       </c>
       <c r="E21">
-        <v>0.7765610765450485</v>
+        <v>0.776561076545048</v>
       </c>
       <c r="F21">
-        <v>0.8300757971984414</v>
+        <v>0.830075797198441</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.013195485349134</v>
       </c>
       <c r="J21">
-        <v>0.7750623557566593</v>
+        <v>0.7750623557566592</v>
       </c>
       <c r="K21">
         <v>0.9822388700419884</v>
       </c>
       <c r="L21">
-        <v>0.7975151159313399</v>
+        <v>0.7975151159313396</v>
       </c>
       <c r="M21">
-        <v>0.8491938137992517</v>
+        <v>0.8491938137992514</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7271765024826409</v>
+        <v>0.7271765024826408</v>
       </c>
       <c r="D22">
-        <v>0.9665957503759791</v>
+        <v>0.9665957503759792</v>
       </c>
       <c r="E22">
-        <v>0.7765610765450485</v>
+        <v>0.776561076545048</v>
       </c>
       <c r="F22">
-        <v>0.8300757971984414</v>
+        <v>0.830075797198441</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.013195485349134</v>
       </c>
       <c r="J22">
-        <v>0.7750623557566593</v>
+        <v>0.7750623557566592</v>
       </c>
       <c r="K22">
         <v>0.9822388700419884</v>
       </c>
       <c r="L22">
-        <v>0.7975151159313399</v>
+        <v>0.7975151159313396</v>
       </c>
       <c r="M22">
-        <v>0.8491938137992517</v>
+        <v>0.8491938137992514</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.6872780869238494</v>
+        <v>0.6872780869238609</v>
       </c>
       <c r="D23">
-        <v>0.9567234338291462</v>
+        <v>0.9567234338291486</v>
       </c>
       <c r="E23">
-        <v>0.743959012783547</v>
+        <v>0.7439590127835568</v>
       </c>
       <c r="F23">
-        <v>0.8035597858247062</v>
+        <v>0.8035597858247132</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.007225700660183</v>
+        <v>1.007225700660184</v>
       </c>
       <c r="J23">
-        <v>0.7409768078672176</v>
+        <v>0.7409768078672277</v>
       </c>
       <c r="K23">
-        <v>0.9728698537594769</v>
+        <v>0.9728698537594794</v>
       </c>
       <c r="L23">
-        <v>0.7666582108053452</v>
+        <v>0.7666582108053543</v>
       </c>
       <c r="M23">
-        <v>0.8239331324914932</v>
+        <v>0.8239331324915004</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,19 +1254,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7963749458104555</v>
+        <v>0.7963749458104546</v>
       </c>
       <c r="D24">
-        <v>0.9857616769793563</v>
+        <v>0.9857616769793567</v>
       </c>
       <c r="E24">
-        <v>0.8341062375197863</v>
+        <v>0.8341062375197852</v>
       </c>
       <c r="F24">
-        <v>0.8784013767830944</v>
+        <v>0.878401376783094</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.024440057921084</v>
       </c>
       <c r="J24">
-        <v>0.8348160877644986</v>
+        <v>0.8348160877644977</v>
       </c>
       <c r="K24">
         <v>1.000043534033835</v>
       </c>
       <c r="L24">
-        <v>0.8518435719402608</v>
+        <v>0.8518435719402599</v>
       </c>
       <c r="M24">
-        <v>0.8949631562277534</v>
+        <v>0.894963156227753</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8581460559495608</v>
+        <v>0.858146055949559</v>
       </c>
       <c r="D25">
         <v>1.004794989022401</v>
       </c>
       <c r="E25">
-        <v>0.8862569835800146</v>
+        <v>0.8862569835800127</v>
       </c>
       <c r="F25">
-        <v>0.9234937594265235</v>
+        <v>0.9234937594265221</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.035216759373915</v>
       </c>
       <c r="J25">
-        <v>0.8886130333912979</v>
+        <v>0.8886130333912962</v>
       </c>
       <c r="K25">
-        <v>1.017319322213618</v>
+        <v>1.017319322213617</v>
       </c>
       <c r="L25">
-        <v>0.900921357806128</v>
+        <v>0.9009213578061265</v>
       </c>
       <c r="M25">
-        <v>0.9374084500511676</v>
+        <v>0.9374084500511664</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_50/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8947143931736057</v>
+        <v>0.9006062419594912</v>
       </c>
       <c r="D2">
-        <v>1.01678227861758</v>
+        <v>1.018023360595213</v>
       </c>
       <c r="E2">
-        <v>0.9173757042867547</v>
+        <v>0.9223248822840122</v>
       </c>
       <c r="F2">
-        <v>0.9508330708629636</v>
+        <v>0.9545369531302316</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041807031740017</v>
+        <v>1.042596985980889</v>
       </c>
       <c r="J2">
-        <v>0.9205751745889905</v>
+        <v>0.9262287431806158</v>
       </c>
       <c r="K2">
-        <v>1.028012657801221</v>
+        <v>1.029237184485067</v>
       </c>
       <c r="L2">
-        <v>0.9301202113089556</v>
+        <v>0.9349840323326616</v>
       </c>
       <c r="M2">
-        <v>0.963022709734013</v>
+        <v>0.9666682251477456</v>
+      </c>
+      <c r="N2">
+        <v>0.9275440942358539</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9173478664449394</v>
+        <v>0.9230381220855362</v>
       </c>
       <c r="D3">
-        <v>1.024426219197392</v>
+        <v>1.025618820105151</v>
       </c>
       <c r="E3">
-        <v>0.9367040002419388</v>
+        <v>0.9414914549454481</v>
       </c>
       <c r="F3">
-        <v>0.9679352566534304</v>
+        <v>0.9715042798972154</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045923566526647</v>
+        <v>1.046683936658628</v>
       </c>
       <c r="J3">
-        <v>0.9403767654227023</v>
+        <v>0.9458719155944454</v>
       </c>
       <c r="K3">
-        <v>1.034755817564182</v>
+        <v>1.035934069943239</v>
       </c>
       <c r="L3">
-        <v>0.9482163848484717</v>
+        <v>0.9529320626917103</v>
       </c>
       <c r="M3">
-        <v>0.9789955454949806</v>
+        <v>0.9825152373671429</v>
+      </c>
+      <c r="N3">
+        <v>0.9472151622076147</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9307031651756762</v>
+        <v>0.936294971617049</v>
       </c>
       <c r="D4">
-        <v>1.029006236726175</v>
+        <v>1.030174713746852</v>
       </c>
       <c r="E4">
-        <v>0.9481284750427702</v>
+        <v>0.9528371081135462</v>
       </c>
       <c r="F4">
-        <v>0.9780782826052197</v>
+        <v>0.981580768005211</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048355142464736</v>
+        <v>1.049100908304194</v>
       </c>
       <c r="J4">
-        <v>0.9520624699328452</v>
+        <v>0.9574816447955172</v>
       </c>
       <c r="K4">
-        <v>1.038766746118567</v>
+        <v>1.039922101818345</v>
       </c>
       <c r="L4">
-        <v>0.9588960650010834</v>
+        <v>0.96354017203991</v>
       </c>
       <c r="M4">
-        <v>0.9884486876955777</v>
+        <v>0.9919067006959421</v>
+      </c>
+      <c r="N4">
+        <v>0.9588413785558066</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9360607908843136</v>
+        <v>0.9416168397314268</v>
       </c>
       <c r="D5">
-        <v>1.030856610441485</v>
+        <v>1.032016236928882</v>
       </c>
       <c r="E5">
-        <v>0.9527150097249115</v>
+        <v>0.9573950586868529</v>
       </c>
       <c r="F5">
-        <v>0.9821563534998715</v>
+        <v>0.9856345390294539</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049329615614721</v>
+        <v>1.050070050333514</v>
       </c>
       <c r="J5">
-        <v>0.9567499185223033</v>
+        <v>0.9621418142501869</v>
       </c>
       <c r="K5">
-        <v>1.040380725291699</v>
+        <v>1.041527709883325</v>
       </c>
       <c r="L5">
-        <v>0.963179810849125</v>
+        <v>0.9677981069895915</v>
       </c>
       <c r="M5">
-        <v>0.9922448725038324</v>
+        <v>0.9956804505747211</v>
+      </c>
+      <c r="N5">
+        <v>0.9635081659856306</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9369465212313239</v>
+        <v>0.9424968526884286</v>
       </c>
       <c r="D6">
-        <v>1.031163195627387</v>
+        <v>1.032321402190457</v>
       </c>
       <c r="E6">
-        <v>0.953473438868594</v>
+        <v>0.9581489202625735</v>
       </c>
       <c r="F6">
-        <v>0.9828310015131865</v>
+        <v>0.9863052945149733</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04949061966368</v>
+        <v>1.050230200667268</v>
       </c>
       <c r="J6">
-        <v>0.9575248129446711</v>
+        <v>0.9629123653194572</v>
       </c>
       <c r="K6">
-        <v>1.04064777485256</v>
+        <v>1.041793418131366</v>
       </c>
       <c r="L6">
-        <v>0.9638879525959638</v>
+        <v>0.9685021326964789</v>
       </c>
       <c r="M6">
-        <v>0.9928726284467001</v>
+        <v>0.9963046179811326</v>
+      </c>
+      <c r="N6">
+        <v>0.9642798113258028</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.930775706363974</v>
+        <v>0.9363670149490805</v>
       </c>
       <c r="D7">
-        <v>1.029031242444997</v>
+        <v>1.030199596583575</v>
       </c>
       <c r="E7">
-        <v>0.9481905632276003</v>
+        <v>0.9528987981254299</v>
       </c>
       <c r="F7">
-        <v>0.9781334662869234</v>
+        <v>0.9816356138729925</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048368342408978</v>
+        <v>1.049114034120203</v>
       </c>
       <c r="J7">
-        <v>0.9521259394918267</v>
+        <v>0.9575447332522797</v>
       </c>
       <c r="K7">
-        <v>1.038788582435772</v>
+        <v>1.039943821790996</v>
       </c>
       <c r="L7">
-        <v>0.9589540692218639</v>
+        <v>0.9635978161289641</v>
       </c>
       <c r="M7">
-        <v>0.9885000746529318</v>
+        <v>0.9919577753968629</v>
+      </c>
+      <c r="N7">
+        <v>0.9589045566054141</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9026675177399243</v>
+        <v>0.9084830638434619</v>
       </c>
       <c r="D8">
-        <v>1.019450270879391</v>
+        <v>1.020673130332137</v>
       </c>
       <c r="E8">
-        <v>0.9241622495814973</v>
+        <v>0.9290501823110431</v>
       </c>
       <c r="F8">
-        <v>0.9568287595503209</v>
+        <v>0.9604817926053437</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043251802180577</v>
+        <v>1.044030606930973</v>
       </c>
       <c r="J8">
-        <v>0.9275323394292695</v>
+        <v>0.9331255849123821</v>
       </c>
       <c r="K8">
-        <v>1.030373066837306</v>
+        <v>1.031580167045338</v>
       </c>
       <c r="L8">
-        <v>0.9364779018102907</v>
+        <v>0.9412854553786044</v>
       </c>
       <c r="M8">
-        <v>0.9686271070001887</v>
+        <v>0.9722250755308596</v>
+      </c>
+      <c r="N8">
+        <v>0.9344507302739583</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8394620419665993</v>
+        <v>0.8461066725543139</v>
       </c>
       <c r="D9">
-        <v>0.9988658542901705</v>
+        <v>1.000281198422866</v>
       </c>
       <c r="E9">
-        <v>0.8704210690299602</v>
+        <v>0.8759748692797379</v>
       </c>
       <c r="F9">
-        <v>0.9096941020707979</v>
+        <v>0.9138909832094226</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03190004334353</v>
+        <v>1.032797637163018</v>
       </c>
       <c r="J9">
-        <v>0.8723089826648773</v>
+        <v>0.8785705642454388</v>
       </c>
       <c r="K9">
-        <v>1.011977359056684</v>
+        <v>1.013369715025683</v>
       </c>
       <c r="L9">
-        <v>0.8860361484464092</v>
+        <v>0.891461387985829</v>
       </c>
       <c r="M9">
-        <v>0.9244445605944025</v>
+        <v>0.9285548398139881</v>
+      </c>
+      <c r="N9">
+        <v>0.8798182352201198</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7763425635135056</v>
+        <v>0.784738003768947</v>
       </c>
       <c r="D10">
-        <v>0.9799625183202165</v>
+        <v>0.9817651435446477</v>
       </c>
       <c r="E10">
-        <v>0.8173369318329489</v>
+        <v>0.8242939173022377</v>
       </c>
       <c r="F10">
-        <v>0.8641427823344526</v>
+        <v>0.869456316341609</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021081186738469</v>
+        <v>1.022220521755289</v>
       </c>
       <c r="J10">
-        <v>0.8174499048860508</v>
+        <v>0.8251581937305434</v>
       </c>
       <c r="K10">
-        <v>0.9947032320533938</v>
+        <v>0.9964716284027869</v>
       </c>
       <c r="L10">
-        <v>0.8360294425633981</v>
+        <v>0.8427732540021697</v>
       </c>
       <c r="M10">
-        <v>0.8814906945486426</v>
+        <v>0.8866639723939926</v>
+      </c>
+      <c r="N10">
+        <v>0.8263300130126086</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7333041987039366</v>
+        <v>0.7443043612363183</v>
       </c>
       <c r="D11">
-        <v>0.9681914320249234</v>
+        <v>0.970554404239699</v>
       </c>
       <c r="E11">
-        <v>0.7816098984136574</v>
+        <v>0.7906474124544554</v>
       </c>
       <c r="F11">
-        <v>0.834242991890104</v>
+        <v>0.8411891398373751</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.014148063323626</v>
+        <v>1.015638859116091</v>
       </c>
       <c r="J11">
-        <v>0.780324272104889</v>
+        <v>0.7902063205480095</v>
       </c>
       <c r="K11">
-        <v>0.9837392197861162</v>
+        <v>0.9860538378340344</v>
       </c>
       <c r="L11">
-        <v>0.8022885723922779</v>
+        <v>0.8109989581444232</v>
       </c>
       <c r="M11">
-        <v>0.8531533024914085</v>
+        <v>0.8598887585832952</v>
+      </c>
+      <c r="N11">
+        <v>0.7913285041611196</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7095153941840617</v>
+        <v>0.7232328133591606</v>
       </c>
       <c r="D12">
-        <v>0.9621135573172427</v>
+        <v>0.9650541342900933</v>
       </c>
       <c r="E12">
-        <v>0.7620690989320118</v>
+        <v>0.7732723147646852</v>
       </c>
       <c r="F12">
-        <v>0.8182023190578004</v>
+        <v>0.8268380008896166</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.010502018359103</v>
+        <v>1.012355717446735</v>
       </c>
       <c r="J12">
-        <v>0.759934957821195</v>
+        <v>0.772092170252012</v>
       </c>
       <c r="K12">
-        <v>0.9780044684081889</v>
+        <v>0.9808829292440452</v>
       </c>
       <c r="L12">
-        <v>0.7838060707035129</v>
+        <v>0.7945682375878952</v>
       </c>
       <c r="M12">
-        <v>0.8378972418906049</v>
+        <v>0.8462527466358336</v>
+      </c>
+      <c r="N12">
+        <v>0.7731886296939796</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7153496524298052</v>
+        <v>0.7282597503929318</v>
       </c>
       <c r="D13">
-        <v>0.9635748294813482</v>
+        <v>0.9663442094237235</v>
       </c>
       <c r="E13">
-        <v>0.7668463365631911</v>
+        <v>0.7774064351306991</v>
       </c>
       <c r="F13">
-        <v>0.822101606924072</v>
+        <v>0.8302361573546595</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.011383085148431</v>
+        <v>1.013129188919881</v>
       </c>
       <c r="J13">
-        <v>0.7649256817714907</v>
+        <v>0.7764065278574347</v>
       </c>
       <c r="K13">
-        <v>0.979388299437549</v>
+        <v>0.9820995980553239</v>
       </c>
       <c r="L13">
-        <v>0.7883264554934039</v>
+        <v>0.7984790589566793</v>
       </c>
       <c r="M13">
-        <v>0.8416095812112645</v>
+        <v>0.84948436170354</v>
+      </c>
+      <c r="N13">
+        <v>0.7775091141820658</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7316032681134189</v>
+        <v>0.7427547529591724</v>
       </c>
       <c r="D14">
-        <v>0.9677464356595736</v>
+        <v>0.9701417000488406</v>
       </c>
       <c r="E14">
-        <v>0.7802074163648371</v>
+        <v>0.7893656333992571</v>
       </c>
       <c r="F14">
-        <v>0.8330838728729308</v>
+        <v>0.8401243632760239</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.013882735436109</v>
+        <v>1.015393809530217</v>
       </c>
       <c r="J14">
-        <v>0.7788630082882628</v>
+        <v>0.7888716351899222</v>
       </c>
       <c r="K14">
-        <v>0.9833211710243397</v>
+        <v>0.9856672981603694</v>
       </c>
       <c r="L14">
-        <v>0.8009627156179162</v>
+        <v>0.8097873712251246</v>
       </c>
       <c r="M14">
-        <v>0.8520522205828083</v>
+        <v>0.8588780774974064</v>
+      </c>
+      <c r="N14">
+        <v>0.7899919233967333</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7401486060261802</v>
+        <v>0.750589010965872</v>
       </c>
       <c r="D15">
-        <v>0.9699979765392274</v>
+        <v>0.9722413135879118</v>
       </c>
       <c r="E15">
-        <v>0.7872611586322238</v>
+        <v>0.7958520503471345</v>
       </c>
       <c r="F15">
-        <v>0.8389254054745138</v>
+        <v>0.8455222090426979</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015222691437875</v>
+        <v>1.01663837673557</v>
       </c>
       <c r="J15">
-        <v>0.7862092471364137</v>
+        <v>0.7956232598795755</v>
       </c>
       <c r="K15">
-        <v>0.9854335508711088</v>
+        <v>0.9876314556280624</v>
       </c>
       <c r="L15">
-        <v>0.8076300406669474</v>
+        <v>0.8159177307978563</v>
       </c>
       <c r="M15">
-        <v>0.8575992456861665</v>
+        <v>0.8640000427829381</v>
+      </c>
+      <c r="N15">
+        <v>0.7967531361678678</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7786569011995997</v>
+        <v>0.7869580449609322</v>
       </c>
       <c r="D16">
-        <v>0.9806224599277157</v>
+        <v>0.9824045564703358</v>
       </c>
       <c r="E16">
-        <v>0.8192701218661805</v>
+        <v>0.826151654445617</v>
       </c>
       <c r="F16">
-        <v>0.8657797204547691</v>
+        <v>0.871033694652942</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021465249725094</v>
+        <v>1.02259173275614</v>
       </c>
       <c r="J16">
-        <v>0.8194537255755709</v>
+        <v>0.8270836154765678</v>
       </c>
       <c r="K16">
-        <v>0.995312887160151</v>
+        <v>0.997061303058995</v>
       </c>
       <c r="L16">
-        <v>0.8378532783359242</v>
+        <v>0.8445259387492486</v>
       </c>
       <c r="M16">
-        <v>0.8830386700626697</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8881550787939645</v>
+      </c>
+      <c r="N16">
+        <v>0.8282581690783611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7974030975858758</v>
+        <v>0.8050464193676062</v>
       </c>
       <c r="D17">
-        <v>0.9860645323068874</v>
+        <v>0.9877026070083514</v>
       </c>
       <c r="E17">
-        <v>0.8349690359891538</v>
+        <v>0.8413238467232755</v>
       </c>
       <c r="F17">
-        <v>0.8791385042872459</v>
+        <v>0.8839755178572936</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024614487763295</v>
+        <v>1.025650893777116</v>
       </c>
       <c r="J17">
-        <v>0.8357086517556241</v>
+        <v>0.8427927223637316</v>
       </c>
       <c r="K17">
-        <v>1.000321393753435</v>
+        <v>1.001929745327603</v>
       </c>
       <c r="L17">
-        <v>0.8526568174399141</v>
+        <v>0.8588333741987833</v>
       </c>
       <c r="M17">
-        <v>0.8956589629525068</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9003776605055143</v>
+      </c>
+      <c r="N17">
+        <v>0.8439895846991645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8071887190321541</v>
+        <v>0.8145503883373474</v>
       </c>
       <c r="D18">
-        <v>0.9889718306960249</v>
+        <v>0.9905477016043492</v>
       </c>
       <c r="E18">
-        <v>0.8431906493375189</v>
+        <v>0.8493197314769189</v>
       </c>
       <c r="F18">
-        <v>0.8861789734091492</v>
+        <v>0.8908365044591021</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026284050839015</v>
+        <v>1.027281613386629</v>
       </c>
       <c r="J18">
-        <v>0.8442094261347932</v>
+        <v>0.8510605691529762</v>
       </c>
       <c r="K18">
-        <v>1.002983679258173</v>
+        <v>1.004531613425584</v>
       </c>
       <c r="L18">
-        <v>0.8604041873317061</v>
+        <v>0.866368537588477</v>
       </c>
       <c r="M18">
-        <v>0.9023014607389398</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9068492403399765</v>
+      </c>
+      <c r="N18">
+        <v>0.8522691727791851</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8103697142303237</v>
+        <v>0.8176473203390083</v>
       </c>
       <c r="D19">
-        <v>0.9899264523302246</v>
+        <v>0.9914836793343327</v>
       </c>
       <c r="E19">
-        <v>0.8458669416265137</v>
+        <v>0.8519286258175519</v>
       </c>
       <c r="F19">
-        <v>0.8884770274250484</v>
+        <v>0.893080852912589</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026830331932375</v>
+        <v>1.027816261526419</v>
       </c>
       <c r="J19">
-        <v>0.8469748689588941</v>
+        <v>0.8537566092336392</v>
       </c>
       <c r="K19">
-        <v>1.003855872939162</v>
+        <v>1.005385710276078</v>
       </c>
       <c r="L19">
-        <v>0.8629252923187545</v>
+        <v>0.8688263418463813</v>
       </c>
       <c r="M19">
-        <v>0.9044683262617196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9089650041484808</v>
+      </c>
+      <c r="N19">
+        <v>0.8549690415460025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7955212052026274</v>
+        <v>0.803223044869515</v>
       </c>
       <c r="D20">
-        <v>0.9855105774415633</v>
+        <v>0.9871615300722896</v>
       </c>
       <c r="E20">
-        <v>0.8333899521530476</v>
+        <v>0.8397916452773706</v>
       </c>
       <c r="F20">
-        <v>0.8777896748048736</v>
+        <v>0.8826638981060043</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024295363535468</v>
+        <v>1.025339816559478</v>
       </c>
       <c r="J20">
-        <v>0.8340750227638664</v>
+        <v>0.841207555252817</v>
       </c>
       <c r="K20">
-        <v>0.9998130822710767</v>
+        <v>1.001433948618405</v>
       </c>
       <c r="L20">
-        <v>0.8511683941029535</v>
+        <v>0.8573890593688448</v>
       </c>
       <c r="M20">
-        <v>0.8943856939807263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8991398495340479</v>
+      </c>
+      <c r="N20">
+        <v>0.8424021664691312</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7271765024826408</v>
+        <v>0.7387475263347736</v>
       </c>
       <c r="D21">
-        <v>0.9665957503759792</v>
+        <v>0.9690804482843365</v>
       </c>
       <c r="E21">
-        <v>0.776561076545048</v>
+        <v>0.7860538707447228</v>
       </c>
       <c r="F21">
-        <v>0.830075797198441</v>
+        <v>0.8373776593032817</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.013195485349134</v>
+        <v>1.014762728657318</v>
       </c>
       <c r="J21">
-        <v>0.7750623557566592</v>
+        <v>0.7854220178688255</v>
       </c>
       <c r="K21">
-        <v>0.9822388700419884</v>
+        <v>0.9846722726165572</v>
       </c>
       <c r="L21">
-        <v>0.7975151159313396</v>
+        <v>0.8066565810024522</v>
       </c>
       <c r="M21">
-        <v>0.8491938137992514</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8562701693521634</v>
+      </c>
+      <c r="N21">
+        <v>0.7865374072233637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7271765024826408</v>
+        <v>0.7387475263347736</v>
       </c>
       <c r="D22">
-        <v>0.9665957503759792</v>
+        <v>0.9690804482843365</v>
       </c>
       <c r="E22">
-        <v>0.776561076545048</v>
+        <v>0.7860538707447228</v>
       </c>
       <c r="F22">
-        <v>0.830075797198441</v>
+        <v>0.8373776593032817</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.013195485349134</v>
+        <v>1.014762728657318</v>
       </c>
       <c r="J22">
-        <v>0.7750623557566592</v>
+        <v>0.7854220178688255</v>
       </c>
       <c r="K22">
-        <v>0.9822388700419884</v>
+        <v>0.9846722726165572</v>
       </c>
       <c r="L22">
-        <v>0.7975151159313396</v>
+        <v>0.8066565810024522</v>
       </c>
       <c r="M22">
-        <v>0.8491938137992514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8562701693521634</v>
+      </c>
+      <c r="N22">
+        <v>0.7865374072233637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.6872780869238609</v>
+        <v>0.7387475263347736</v>
       </c>
       <c r="D23">
-        <v>0.9567234338291486</v>
+        <v>0.9690804482843365</v>
       </c>
       <c r="E23">
-        <v>0.7439590127835568</v>
+        <v>0.7860538707447228</v>
       </c>
       <c r="F23">
-        <v>0.8035597858247132</v>
+        <v>0.8373776593032817</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.007225700660184</v>
+        <v>1.014762728657318</v>
       </c>
       <c r="J23">
-        <v>0.7409768078672277</v>
+        <v>0.7854220178688255</v>
       </c>
       <c r="K23">
-        <v>0.9728698537594794</v>
+        <v>0.9846722726165572</v>
       </c>
       <c r="L23">
-        <v>0.7666582108053543</v>
+        <v>0.8066565810024522</v>
       </c>
       <c r="M23">
-        <v>0.8239331324915004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8562701693521634</v>
+      </c>
+      <c r="N23">
+        <v>0.7865374072233637</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7963749458104546</v>
+        <v>0.7387475263347736</v>
       </c>
       <c r="D24">
-        <v>0.9857616769793567</v>
+        <v>0.9690804482843365</v>
       </c>
       <c r="E24">
-        <v>0.8341062375197852</v>
+        <v>0.7860538707447228</v>
       </c>
       <c r="F24">
-        <v>0.878401376783094</v>
+        <v>0.8373776593032817</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024440057921084</v>
+        <v>1.014762728657318</v>
       </c>
       <c r="J24">
-        <v>0.8348160877644977</v>
+        <v>0.7854220178688255</v>
       </c>
       <c r="K24">
-        <v>1.000043534033835</v>
+        <v>0.9846722726165572</v>
       </c>
       <c r="L24">
-        <v>0.8518435719402599</v>
+        <v>0.8066565810024522</v>
       </c>
       <c r="M24">
-        <v>0.894963156227753</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8562701693521634</v>
+      </c>
+      <c r="N24">
+        <v>0.7865374072233637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.858146055949559</v>
+        <v>0.7387475263347736</v>
       </c>
       <c r="D25">
-        <v>1.004794989022401</v>
+        <v>0.9690804482843365</v>
       </c>
       <c r="E25">
-        <v>0.8862569835800127</v>
+        <v>0.7860538707447228</v>
       </c>
       <c r="F25">
-        <v>0.9234937594265221</v>
+        <v>0.8373776593032817</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035216759373915</v>
+        <v>1.014762728657318</v>
       </c>
       <c r="J25">
-        <v>0.8886130333912962</v>
+        <v>0.7854220178688255</v>
       </c>
       <c r="K25">
-        <v>1.017319322213617</v>
+        <v>0.9846722726165572</v>
       </c>
       <c r="L25">
-        <v>0.9009213578061265</v>
+        <v>0.8066565810024522</v>
       </c>
       <c r="M25">
-        <v>0.9374084500511664</v>
+        <v>0.8562701693521634</v>
+      </c>
+      <c r="N25">
+        <v>0.7865374072233637</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_50/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9006062419594912</v>
+        <v>0.94560117853627</v>
       </c>
       <c r="D2">
-        <v>1.018023360595213</v>
+        <v>1.029084566764257</v>
       </c>
       <c r="E2">
-        <v>0.9223248822840122</v>
+        <v>0.9584692221376958</v>
       </c>
       <c r="F2">
-        <v>0.9545369531302316</v>
+        <v>1.01313650082769</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042596985980889</v>
+        <v>1.046710369922992</v>
       </c>
       <c r="J2">
-        <v>0.9262287431806158</v>
+        <v>0.9695402966651595</v>
       </c>
       <c r="K2">
-        <v>1.029237184485067</v>
+        <v>1.040153049010982</v>
       </c>
       <c r="L2">
-        <v>0.9349840323326616</v>
+        <v>0.9705391591044292</v>
       </c>
       <c r="M2">
-        <v>0.9666682251477456</v>
+        <v>1.024415807404116</v>
       </c>
       <c r="N2">
-        <v>0.9275440942358539</v>
+        <v>0.9709171550942506</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9230381220855362</v>
+        <v>0.9562954907224487</v>
       </c>
       <c r="D3">
-        <v>1.025618820105151</v>
+        <v>1.033772397494664</v>
       </c>
       <c r="E3">
-        <v>0.9414914549454481</v>
+        <v>0.9674864755592943</v>
       </c>
       <c r="F3">
-        <v>0.9715042798972154</v>
+        <v>1.019891833703986</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046683936658628</v>
+        <v>1.048209932719568</v>
       </c>
       <c r="J3">
-        <v>0.9458719155944454</v>
+        <v>0.9780528939668117</v>
       </c>
       <c r="K3">
-        <v>1.035934069943239</v>
+        <v>1.043990647590075</v>
       </c>
       <c r="L3">
-        <v>0.9529320626917103</v>
+        <v>0.9785529999940487</v>
       </c>
       <c r="M3">
-        <v>0.9825152373671429</v>
+        <v>1.030276367255248</v>
       </c>
       <c r="N3">
-        <v>0.9472151622076147</v>
+        <v>0.9794418412604795</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.936294971617049</v>
+        <v>0.9629299405132892</v>
       </c>
       <c r="D4">
-        <v>1.030174713746852</v>
+        <v>1.036700718355672</v>
       </c>
       <c r="E4">
-        <v>0.9528371081135462</v>
+        <v>0.9730891491468812</v>
       </c>
       <c r="F4">
-        <v>0.981580768005211</v>
+        <v>1.024105976364368</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049100908304194</v>
+        <v>1.049131675087382</v>
       </c>
       <c r="J4">
-        <v>0.9574816447955172</v>
+        <v>0.983331906452757</v>
       </c>
       <c r="K4">
-        <v>1.039922101818345</v>
+        <v>1.046375491853337</v>
       </c>
       <c r="L4">
-        <v>0.96354017203991</v>
+        <v>0.9835235946996708</v>
       </c>
       <c r="M4">
-        <v>0.9919067006959421</v>
+        <v>1.033921914937309</v>
       </c>
       <c r="N4">
-        <v>0.9588413785558066</v>
+        <v>0.9847283505496661</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9416168397314268</v>
+        <v>0.965656216574529</v>
       </c>
       <c r="D5">
-        <v>1.032016236928882</v>
+        <v>1.037908155554496</v>
       </c>
       <c r="E5">
-        <v>0.9573950586868529</v>
+        <v>0.975393283430299</v>
       </c>
       <c r="F5">
-        <v>0.9856345390294539</v>
+        <v>1.025842530009537</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050070050333514</v>
+        <v>1.049508136115117</v>
       </c>
       <c r="J5">
-        <v>0.9621418142501869</v>
+        <v>0.9855005626571585</v>
       </c>
       <c r="K5">
-        <v>1.041527709883325</v>
+        <v>1.047355931415782</v>
       </c>
       <c r="L5">
-        <v>0.9677981069895915</v>
+        <v>0.9855657336057744</v>
       </c>
       <c r="M5">
-        <v>0.9956804505747211</v>
+        <v>1.035421711147835</v>
       </c>
       <c r="N5">
-        <v>0.9635081659856306</v>
+        <v>0.9869000864946262</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9424968526884286</v>
+        <v>0.966110431923301</v>
       </c>
       <c r="D6">
-        <v>1.032321402190457</v>
+        <v>1.038109544734272</v>
       </c>
       <c r="E6">
-        <v>0.9581489202625735</v>
+        <v>0.9757772695850647</v>
       </c>
       <c r="F6">
-        <v>0.9863052945149733</v>
+        <v>1.026132116055363</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050230200667268</v>
+        <v>1.049570714078713</v>
       </c>
       <c r="J6">
-        <v>0.9629123653194572</v>
+        <v>0.9858618332137402</v>
       </c>
       <c r="K6">
-        <v>1.041793418131366</v>
+        <v>1.047519290200825</v>
       </c>
       <c r="L6">
-        <v>0.9685021326964789</v>
+        <v>0.9859059379914807</v>
       </c>
       <c r="M6">
-        <v>0.9963046179811326</v>
+        <v>1.035671672673037</v>
       </c>
       <c r="N6">
-        <v>0.9642798113258028</v>
+        <v>0.9872618700968367</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9363670149490805</v>
+        <v>0.9629666093435354</v>
       </c>
       <c r="D7">
-        <v>1.030199596583575</v>
+        <v>1.036716943164258</v>
       </c>
       <c r="E7">
-        <v>0.9528987981254299</v>
+        <v>0.9731201330735687</v>
       </c>
       <c r="F7">
-        <v>0.9816356138729925</v>
+        <v>1.024129314980964</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049114034120203</v>
+        <v>1.049136748027063</v>
       </c>
       <c r="J7">
-        <v>0.9575447332522797</v>
+        <v>0.9833610779271807</v>
       </c>
       <c r="K7">
-        <v>1.039943821790996</v>
+        <v>1.046388677843413</v>
       </c>
       <c r="L7">
-        <v>0.9635978161289641</v>
+        <v>0.9835510636478999</v>
       </c>
       <c r="M7">
-        <v>0.9919577753968629</v>
+        <v>1.033942081287669</v>
       </c>
       <c r="N7">
-        <v>0.9589045566054141</v>
+        <v>0.9847575634509299</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9084830638434619</v>
+        <v>0.9492780283184206</v>
       </c>
       <c r="D8">
-        <v>1.020673130332137</v>
+        <v>1.030691554961327</v>
       </c>
       <c r="E8">
-        <v>0.9290501823110431</v>
+        <v>0.9615674917121476</v>
       </c>
       <c r="F8">
-        <v>0.9604817926053437</v>
+        <v>1.015453621230306</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044030606930973</v>
+        <v>1.047227590000011</v>
       </c>
       <c r="J8">
-        <v>0.9331255849123821</v>
+        <v>0.9724673534941602</v>
       </c>
       <c r="K8">
-        <v>1.031580167045338</v>
+        <v>1.041471238660048</v>
       </c>
       <c r="L8">
-        <v>0.9412854553786044</v>
+        <v>0.9732945118083766</v>
       </c>
       <c r="M8">
-        <v>0.9722250755308596</v>
+        <v>1.026428254373065</v>
       </c>
       <c r="N8">
-        <v>0.9344507302739583</v>
+        <v>0.9738483686796866</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8461066725543139</v>
+        <v>0.9226777819658949</v>
       </c>
       <c r="D9">
-        <v>1.000281198422866</v>
+        <v>1.019190589325605</v>
       </c>
       <c r="E9">
-        <v>0.8759748692797379</v>
+        <v>0.9392028117432241</v>
       </c>
       <c r="F9">
-        <v>0.9138909832094226</v>
+        <v>0.9988312589837093</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032797637163018</v>
+        <v>1.043460449870435</v>
       </c>
       <c r="J9">
-        <v>0.8785705642454388</v>
+        <v>0.951291041738491</v>
       </c>
       <c r="K9">
-        <v>1.013369715025683</v>
+        <v>1.031979800700121</v>
       </c>
       <c r="L9">
-        <v>0.891461387985829</v>
+        <v>0.9533658286275464</v>
       </c>
       <c r="M9">
-        <v>0.9285548398139881</v>
+        <v>1.01194332669857</v>
       </c>
       <c r="N9">
-        <v>0.8798182352201198</v>
+        <v>0.9526419841323676</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.784738003768947</v>
+        <v>0.9027730005633484</v>
       </c>
       <c r="D10">
-        <v>0.9817651435446477</v>
+        <v>1.010795824479847</v>
       </c>
       <c r="E10">
-        <v>0.8242939173022377</v>
+        <v>0.9225489277841499</v>
       </c>
       <c r="F10">
-        <v>0.869456316341609</v>
+        <v>0.9866283013344476</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022220521755289</v>
+        <v>1.040625757498975</v>
       </c>
       <c r="J10">
-        <v>0.8251581937305434</v>
+        <v>0.9354561613348307</v>
       </c>
       <c r="K10">
-        <v>0.9964716284027869</v>
+        <v>1.024972854929584</v>
       </c>
       <c r="L10">
-        <v>0.8427732540021697</v>
+        <v>0.9384731174518993</v>
       </c>
       <c r="M10">
-        <v>0.8866639723939926</v>
+        <v>1.0012432571984</v>
       </c>
       <c r="N10">
-        <v>0.8263300130126086</v>
+        <v>0.9367846163822476</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7443043612363183</v>
+        <v>0.8934879994536827</v>
       </c>
       <c r="D11">
-        <v>0.970554404239699</v>
+        <v>1.00694940506317</v>
       </c>
       <c r="E11">
-        <v>0.7906474124544554</v>
+        <v>0.9148065378014729</v>
       </c>
       <c r="F11">
-        <v>0.8411891398373751</v>
+        <v>0.9810126733477552</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015638859116091</v>
+        <v>1.03930633608908</v>
       </c>
       <c r="J11">
-        <v>0.7902063205480095</v>
+        <v>0.928077082351112</v>
       </c>
       <c r="K11">
-        <v>0.9860538378340344</v>
+        <v>1.021741445069486</v>
       </c>
       <c r="L11">
-        <v>0.8109989581444232</v>
+        <v>0.931536207496398</v>
       </c>
       <c r="M11">
-        <v>0.8598887585832952</v>
+        <v>0.9963017714694684</v>
       </c>
       <c r="N11">
-        <v>0.7913285041611196</v>
+        <v>0.9293950582599801</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7232328133591606</v>
+        <v>0.8899221854680682</v>
       </c>
       <c r="D12">
-        <v>0.9650541342900933</v>
+        <v>1.00548466481458</v>
       </c>
       <c r="E12">
-        <v>0.7732723147646852</v>
+        <v>0.9118378136029948</v>
       </c>
       <c r="F12">
-        <v>0.8268380008896166</v>
+        <v>0.9788697431140144</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.012355717446735</v>
+        <v>1.038800749784164</v>
       </c>
       <c r="J12">
-        <v>0.772092170252012</v>
+        <v>0.9252448534613302</v>
       </c>
       <c r="K12">
-        <v>0.9808829292440452</v>
+        <v>1.0205075362978</v>
       </c>
       <c r="L12">
-        <v>0.7945682375878952</v>
+        <v>0.9288742616292305</v>
       </c>
       <c r="M12">
-        <v>0.8462527466358336</v>
+        <v>0.9944132796197543</v>
       </c>
       <c r="N12">
-        <v>0.7731886296939796</v>
+        <v>0.9265588072803135</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7282597503929318</v>
+        <v>0.8906926751114655</v>
       </c>
       <c r="D13">
-        <v>0.9663442094237235</v>
+        <v>1.005800565064154</v>
       </c>
       <c r="E13">
-        <v>0.7774064351306991</v>
+        <v>0.9124790624188878</v>
       </c>
       <c r="F13">
-        <v>0.8302361573546595</v>
+        <v>0.9793321244854637</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.013129188919881</v>
+        <v>1.038909932157094</v>
       </c>
       <c r="J13">
-        <v>0.7764065278574347</v>
+        <v>0.9258567492665902</v>
       </c>
       <c r="K13">
-        <v>0.9820995980553239</v>
+        <v>1.020773809303084</v>
       </c>
       <c r="L13">
-        <v>0.7984790589566793</v>
+        <v>0.9294493406408464</v>
       </c>
       <c r="M13">
-        <v>0.84948436170354</v>
+        <v>0.9948208911275722</v>
       </c>
       <c r="N13">
-        <v>0.7775091141820658</v>
+        <v>0.9271715720478022</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7427547529591724</v>
+        <v>0.8931957468843733</v>
       </c>
       <c r="D14">
-        <v>0.9701417000488406</v>
+        <v>1.006829091829169</v>
       </c>
       <c r="E14">
-        <v>0.7893656333992571</v>
+        <v>0.9145631235381446</v>
       </c>
       <c r="F14">
-        <v>0.8401243632760239</v>
+        <v>0.980836749395563</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015393809530217</v>
+        <v>1.03926487134996</v>
       </c>
       <c r="J14">
-        <v>0.7888716351899222</v>
+        <v>0.9278449177493797</v>
       </c>
       <c r="K14">
-        <v>0.9856672981603694</v>
+        <v>1.021640161918585</v>
       </c>
       <c r="L14">
-        <v>0.8097873712251246</v>
+        <v>0.9313179892217052</v>
       </c>
       <c r="M14">
-        <v>0.8588780774974064</v>
+        <v>0.9961467938379649</v>
       </c>
       <c r="N14">
-        <v>0.7899919233967333</v>
+        <v>0.9291625639578831</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.750589010965872</v>
+        <v>0.894721897515289</v>
       </c>
       <c r="D15">
-        <v>0.9722413135879118</v>
+        <v>1.007457885927121</v>
       </c>
       <c r="E15">
-        <v>0.7958520503471345</v>
+        <v>0.9158344324335851</v>
       </c>
       <c r="F15">
-        <v>0.8455222090426979</v>
+        <v>0.9817559960872015</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.01663837673557</v>
+        <v>1.039481451152877</v>
       </c>
       <c r="J15">
-        <v>0.7956232598795755</v>
+        <v>0.9290573567954258</v>
       </c>
       <c r="K15">
-        <v>0.9876314556280624</v>
+        <v>1.022169360897932</v>
       </c>
       <c r="L15">
-        <v>0.8159177307978563</v>
+        <v>0.9324576197189713</v>
       </c>
       <c r="M15">
-        <v>0.8640000427829381</v>
+        <v>0.9969564754946164</v>
       </c>
       <c r="N15">
-        <v>0.7967531361678678</v>
+        <v>0.9303767248064435</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7869580449609322</v>
+        <v>0.9033738337224018</v>
       </c>
       <c r="D16">
-        <v>0.9824045564703358</v>
+        <v>1.011046303280857</v>
       </c>
       <c r="E16">
-        <v>0.826151654445617</v>
+        <v>0.9230505300468835</v>
       </c>
       <c r="F16">
-        <v>0.871033694652942</v>
+        <v>0.9869934262247506</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02259173275614</v>
+        <v>1.040711250767039</v>
       </c>
       <c r="J16">
-        <v>0.8270836154765678</v>
+        <v>0.9359338543249506</v>
       </c>
       <c r="K16">
-        <v>0.997061303058995</v>
+        <v>1.025182836467472</v>
       </c>
       <c r="L16">
-        <v>0.8445259387492486</v>
+        <v>0.9389222577347087</v>
       </c>
       <c r="M16">
-        <v>0.8881550787939645</v>
+        <v>1.001564176089553</v>
       </c>
       <c r="N16">
-        <v>0.8282581690783611</v>
+        <v>0.9372629877512055</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8050464193676062</v>
+        <v>0.9086119519912261</v>
       </c>
       <c r="D17">
-        <v>0.9877026070083514</v>
+        <v>1.013237906885118</v>
       </c>
       <c r="E17">
-        <v>0.8413238467232755</v>
+        <v>0.9274265160653898</v>
       </c>
       <c r="F17">
-        <v>0.8839755178572936</v>
+        <v>0.9901853388424521</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025650893777116</v>
+        <v>1.041456976990232</v>
       </c>
       <c r="J17">
-        <v>0.8427927223637316</v>
+        <v>0.9400992989089879</v>
       </c>
       <c r="K17">
-        <v>1.001929745327603</v>
+        <v>1.027017741695525</v>
       </c>
       <c r="L17">
-        <v>0.8588333741987833</v>
+        <v>0.9428390803877642</v>
       </c>
       <c r="M17">
-        <v>0.9003776605055143</v>
+        <v>1.004367671229604</v>
       </c>
       <c r="N17">
-        <v>0.8439895846991645</v>
+        <v>0.9414343477443352</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8145503883373474</v>
+        <v>0.9116043179028828</v>
       </c>
       <c r="D18">
-        <v>0.9905477016043492</v>
+        <v>1.014496162869728</v>
       </c>
       <c r="E18">
-        <v>0.8493197314769189</v>
+        <v>0.9299287325309635</v>
       </c>
       <c r="F18">
-        <v>0.8908365044591021</v>
+        <v>0.9920156893942951</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027281613386629</v>
+        <v>1.041883202371136</v>
       </c>
       <c r="J18">
-        <v>0.8510605691529762</v>
+        <v>0.9424795289250325</v>
       </c>
       <c r="K18">
-        <v>1.004531613425584</v>
+        <v>1.028069278661942</v>
       </c>
       <c r="L18">
-        <v>0.866368537588477</v>
+        <v>0.9450775221896436</v>
       </c>
       <c r="M18">
-        <v>0.9068492403399765</v>
+        <v>1.005973680531332</v>
       </c>
       <c r="N18">
-        <v>0.8522691727791851</v>
+        <v>0.9438179579600192</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8176473203390083</v>
+        <v>0.91261440948523</v>
       </c>
       <c r="D19">
-        <v>0.9914836793343327</v>
+        <v>1.014921905429798</v>
       </c>
       <c r="E19">
-        <v>0.8519286258175519</v>
+        <v>0.9307737524412738</v>
       </c>
       <c r="F19">
-        <v>0.893080852912589</v>
+        <v>0.9926346521058396</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027816261526419</v>
+        <v>1.042027095963914</v>
       </c>
       <c r="J19">
-        <v>0.8537566092336392</v>
+        <v>0.9432830868333008</v>
       </c>
       <c r="K19">
-        <v>1.005385710276078</v>
+        <v>1.028424754606421</v>
       </c>
       <c r="L19">
-        <v>0.8688263418463813</v>
+        <v>0.9458332577763239</v>
       </c>
       <c r="M19">
-        <v>0.9089650041484808</v>
+        <v>1.006516510431289</v>
       </c>
       <c r="N19">
-        <v>0.8549690415460025</v>
+        <v>0.9446226570126862</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.803223044869515</v>
+        <v>0.9080565705542633</v>
       </c>
       <c r="D20">
-        <v>0.9871615300722896</v>
+        <v>1.01300487207377</v>
       </c>
       <c r="E20">
-        <v>0.8397916452773706</v>
+        <v>0.9269622933273607</v>
       </c>
       <c r="F20">
-        <v>0.8826638981060043</v>
+        <v>0.9898461754692197</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025339816559478</v>
+        <v>1.041377882972653</v>
       </c>
       <c r="J20">
-        <v>0.841207555252817</v>
+        <v>0.9396575789709581</v>
       </c>
       <c r="K20">
-        <v>1.001433948618405</v>
+        <v>1.026822837110228</v>
       </c>
       <c r="L20">
-        <v>0.8573890593688448</v>
+        <v>0.9424236954587989</v>
       </c>
       <c r="M20">
-        <v>0.8991398495340479</v>
+        <v>1.004069948731915</v>
       </c>
       <c r="N20">
-        <v>0.8424021664691312</v>
+        <v>0.9409920005133275</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7387475263347736</v>
+        <v>0.8924620401284802</v>
       </c>
       <c r="D21">
-        <v>0.9690804482843365</v>
+        <v>1.006527249400524</v>
       </c>
       <c r="E21">
-        <v>0.7860538707447228</v>
+        <v>0.9139521039729943</v>
       </c>
       <c r="F21">
-        <v>0.8373776593032817</v>
+        <v>0.9803953158162416</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014762728657318</v>
+        <v>1.039160793761994</v>
       </c>
       <c r="J21">
-        <v>0.7854220178688255</v>
+        <v>0.9272620913495232</v>
       </c>
       <c r="K21">
-        <v>0.9846722726165572</v>
+        <v>1.02138600730682</v>
       </c>
       <c r="L21">
-        <v>0.8066565810024522</v>
+        <v>0.9307701832305254</v>
       </c>
       <c r="M21">
-        <v>0.8562701693521634</v>
+        <v>0.9957578734838068</v>
       </c>
       <c r="N21">
-        <v>0.7865374072233637</v>
+        <v>0.9285789098776878</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7387475263347736</v>
+        <v>0.8819686718803116</v>
       </c>
       <c r="D22">
-        <v>0.9690804482843365</v>
+        <v>1.002243276942552</v>
       </c>
       <c r="E22">
-        <v>0.7860538707447228</v>
+        <v>0.9052257494472501</v>
       </c>
       <c r="F22">
-        <v>0.8373776593032817</v>
+        <v>0.9741182428124598</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014762728657318</v>
+        <v>1.037676028379618</v>
       </c>
       <c r="J22">
-        <v>0.7854220178688255</v>
+        <v>0.9189313203050731</v>
       </c>
       <c r="K22">
-        <v>0.9846722726165572</v>
+        <v>1.017770424683223</v>
       </c>
       <c r="L22">
-        <v>0.8066565810024522</v>
+        <v>0.9229415163490756</v>
       </c>
       <c r="M22">
-        <v>0.8562701693521634</v>
+        <v>0.9902204697090643</v>
       </c>
       <c r="N22">
-        <v>0.7865374072233637</v>
+        <v>0.920236308182802</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7387475263347736</v>
+        <v>0.8876035087424137</v>
       </c>
       <c r="D23">
-        <v>0.9690804482843365</v>
+        <v>1.004536009589415</v>
       </c>
       <c r="E23">
-        <v>0.7860538707447228</v>
+        <v>0.9099088190549288</v>
       </c>
       <c r="F23">
-        <v>0.8373776593032817</v>
+        <v>0.9774804753537316</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014762728657318</v>
+        <v>1.038472407131376</v>
       </c>
       <c r="J23">
-        <v>0.7854220178688255</v>
+        <v>0.9234037283824397</v>
       </c>
       <c r="K23">
-        <v>0.9846722726165572</v>
+        <v>1.01970739792053</v>
       </c>
       <c r="L23">
-        <v>0.8066565810024522</v>
+        <v>0.9271440071053785</v>
       </c>
       <c r="M23">
-        <v>0.8562701693521634</v>
+        <v>0.9931881426067858</v>
       </c>
       <c r="N23">
-        <v>0.7865374072233637</v>
+        <v>0.924715067592631</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7387475263347736</v>
+        <v>0.9083077167906857</v>
       </c>
       <c r="D24">
-        <v>0.9690804482843365</v>
+        <v>1.013110232184324</v>
       </c>
       <c r="E24">
-        <v>0.7860538707447228</v>
+        <v>0.9271722098483622</v>
       </c>
       <c r="F24">
-        <v>0.8373776593032817</v>
+        <v>0.9899995254248716</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.014762728657318</v>
+        <v>1.041413649054022</v>
       </c>
       <c r="J24">
-        <v>0.7854220178688255</v>
+        <v>0.9398573249326393</v>
       </c>
       <c r="K24">
-        <v>0.9846722726165572</v>
+        <v>1.026910963700846</v>
       </c>
       <c r="L24">
-        <v>0.8066565810024522</v>
+        <v>0.9426115318514812</v>
       </c>
       <c r="M24">
-        <v>0.8562701693521634</v>
+        <v>1.004204566529292</v>
       </c>
       <c r="N24">
-        <v>0.7865374072233637</v>
+        <v>0.9411920301371854</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7387475263347736</v>
+        <v>0.9298943912760119</v>
       </c>
       <c r="D25">
-        <v>0.9690804482843365</v>
+        <v>1.022280878886867</v>
       </c>
       <c r="E25">
-        <v>0.7860538707447228</v>
+        <v>0.9452585728998445</v>
       </c>
       <c r="F25">
-        <v>0.8373776593032817</v>
+        <v>1.003307325755501</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.014762728657318</v>
+        <v>1.044486921630761</v>
       </c>
       <c r="J25">
-        <v>0.7854220178688255</v>
+        <v>0.957035556184599</v>
       </c>
       <c r="K25">
-        <v>0.9846722726165572</v>
+        <v>1.034542885892555</v>
       </c>
       <c r="L25">
-        <v>0.8066565810024522</v>
+        <v>0.9587706016613824</v>
       </c>
       <c r="M25">
-        <v>0.8562701693521634</v>
+        <v>1.015854515795666</v>
       </c>
       <c r="N25">
-        <v>0.7865374072233637</v>
+        <v>0.9583946564478937</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_50/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9930084505699148</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.026513451475777</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9962096142533021</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.9909409138966846</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.028140619206577</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.9983654513757799</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.029335878222202</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.9991234862284134</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9938713082539624</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9997832448308503</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.02</v>
+      </c>
+      <c r="C3">
+        <v>1.000101573784634</v>
+      </c>
+      <c r="D3">
+        <v>1.026832767717716</v>
+      </c>
+      <c r="E3">
+        <v>1.002539632169409</v>
+      </c>
+      <c r="F3">
+        <v>0.998800783312061</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.028119731977348</v>
+      </c>
+      <c r="J3">
+        <v>1.005049629549494</v>
+      </c>
+      <c r="K3">
+        <v>1.029464047931005</v>
+      </c>
+      <c r="L3">
+        <v>1.005238523595308</v>
+      </c>
+      <c r="M3">
+        <v>1.001510397609223</v>
+      </c>
+      <c r="N3">
+        <v>1.006476915304258</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.02</v>
+      </c>
+      <c r="C4">
+        <v>1.004577625974288</v>
+      </c>
+      <c r="D4">
+        <v>1.027038990663314</v>
+      </c>
+      <c r="E4">
+        <v>1.006530450827754</v>
+      </c>
+      <c r="F4">
+        <v>1.00376477868173</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.02810454699596</v>
+      </c>
+      <c r="J4">
+        <v>1.00926435117339</v>
+      </c>
+      <c r="K4">
+        <v>1.029545830079758</v>
+      </c>
+      <c r="L4">
+        <v>1.009091298923285</v>
+      </c>
+      <c r="M4">
+        <v>1.006333092772</v>
+      </c>
+      <c r="N4">
+        <v>1.010697622316295</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.02</v>
+      </c>
+      <c r="C5">
+        <v>1.00643368087013</v>
+      </c>
+      <c r="D5">
+        <v>1.027125589626534</v>
+      </c>
+      <c r="E5">
+        <v>1.008184407704152</v>
+      </c>
+      <c r="F5">
+        <v>1.00582415859297</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.028097762610924</v>
+      </c>
+      <c r="J5">
+        <v>1.011011261408891</v>
+      </c>
+      <c r="K5">
+        <v>1.029579933844558</v>
+      </c>
+      <c r="L5">
+        <v>1.010687449890045</v>
+      </c>
+      <c r="M5">
+        <v>1.008333407787024</v>
+      </c>
+      <c r="N5">
+        <v>1.012447013364704</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.02</v>
+      </c>
+      <c r="C6">
+        <v>1.006743857377935</v>
+      </c>
+      <c r="D6">
+        <v>1.027140124207022</v>
+      </c>
+      <c r="E6">
+        <v>1.008460757943759</v>
+      </c>
+      <c r="F6">
+        <v>1.006168372622093</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.028096599963332</v>
+      </c>
+      <c r="J6">
+        <v>1.011303152326119</v>
+      </c>
+      <c r="K6">
+        <v>1.029585643700014</v>
+      </c>
+      <c r="L6">
+        <v>1.01095410685342</v>
+      </c>
+      <c r="M6">
+        <v>1.008667723380766</v>
+      </c>
+      <c r="N6">
+        <v>1.012739318800514</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.02</v>
+      </c>
+      <c r="C7">
+        <v>1.004602525622243</v>
+      </c>
+      <c r="D7">
+        <v>1.027040148187642</v>
+      </c>
+      <c r="E7">
+        <v>1.006552642781277</v>
+      </c>
+      <c r="F7">
+        <v>1.003792402070271</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.028104457917983</v>
+      </c>
+      <c r="J7">
+        <v>1.009287789686426</v>
+      </c>
+      <c r="K7">
+        <v>1.029546286868134</v>
+      </c>
+      <c r="L7">
+        <v>1.009112717611803</v>
+      </c>
+      <c r="M7">
+        <v>1.006359925650492</v>
+      </c>
+      <c r="N7">
+        <v>1.010721094114708</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.9954301051588915</v>
+      </c>
+      <c r="D8">
+        <v>1.026621446480098</v>
+      </c>
+      <c r="E8">
+        <v>0.9983715088152648</v>
+      </c>
+      <c r="F8">
+        <v>0.993623487805529</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.02813390540539</v>
+      </c>
+      <c r="J8">
+        <v>1.00064817868472</v>
+      </c>
+      <c r="K8">
+        <v>1.029379431388346</v>
+      </c>
+      <c r="L8">
+        <v>1.001212489949779</v>
+      </c>
+      <c r="M8">
+        <v>0.9964789233214655</v>
+      </c>
+      <c r="N8">
+        <v>1.002069213874403</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.02</v>
+      </c>
+      <c r="C9">
+        <v>0.9783205764612979</v>
+      </c>
+      <c r="D9">
+        <v>1.025880711243438</v>
+      </c>
+      <c r="E9">
+        <v>0.9830817382785806</v>
+      </c>
+      <c r="F9">
+        <v>0.9746875594148453</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.028173049635261</v>
+      </c>
+      <c r="J9">
+        <v>0.9845060212834819</v>
+      </c>
+      <c r="K9">
+        <v>1.029076656696341</v>
+      </c>
+      <c r="L9">
+        <v>0.9864271902042485</v>
+      </c>
+      <c r="M9">
+        <v>0.9780640366811924</v>
+      </c>
+      <c r="N9">
+        <v>0.9859041327581235</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.02</v>
+      </c>
+      <c r="C10">
+        <v>0.966159120324894</v>
+      </c>
+      <c r="D10">
+        <v>1.025385058414673</v>
+      </c>
+      <c r="E10">
+        <v>0.9721943220809653</v>
+      </c>
+      <c r="F10">
+        <v>0.9612490314044084</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.028190631074268</v>
+      </c>
+      <c r="J10">
+        <v>0.9730138585618151</v>
+      </c>
+      <c r="K10">
+        <v>1.02886901662911</v>
+      </c>
+      <c r="L10">
+        <v>0.9758845337612366</v>
+      </c>
+      <c r="M10">
+        <v>0.9649848447286592</v>
+      </c>
+      <c r="N10">
+        <v>0.9743956498472226</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.02</v>
+      </c>
+      <c r="C11">
+        <v>0.9606831415645073</v>
+      </c>
+      <c r="D11">
+        <v>1.025170031100778</v>
+      </c>
+      <c r="E11">
+        <v>0.9672875309838622</v>
+      </c>
+      <c r="F11">
+        <v>0.9552027903459976</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.028196236062541</v>
+      </c>
+      <c r="J11">
+        <v>0.9678348320980014</v>
+      </c>
+      <c r="K11">
+        <v>1.028777753015332</v>
+      </c>
+      <c r="L11">
+        <v>0.97112956630897</v>
+      </c>
+      <c r="M11">
+        <v>0.9590977607796322</v>
+      </c>
+      <c r="N11">
+        <v>0.9692092685717875</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.02</v>
+      </c>
+      <c r="C12">
+        <v>0.9586145506910082</v>
+      </c>
+      <c r="D12">
+        <v>1.025090101753847</v>
+      </c>
+      <c r="E12">
+        <v>0.9654332964499098</v>
+      </c>
+      <c r="F12">
+        <v>0.9529194695819285</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.028198017265125</v>
+      </c>
+      <c r="J12">
+        <v>0.9658777490661349</v>
+      </c>
+      <c r="K12">
+        <v>1.028743651841868</v>
+      </c>
+      <c r="L12">
+        <v>0.9693321597485967</v>
+      </c>
+      <c r="M12">
+        <v>0.9568741640828985</v>
+      </c>
+      <c r="N12">
+        <v>0.9672494062575352</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.02</v>
+      </c>
+      <c r="C13">
+        <v>0.9590598874230633</v>
+      </c>
+      <c r="D13">
+        <v>1.025107249484422</v>
+      </c>
+      <c r="E13">
+        <v>0.9658325149312958</v>
+      </c>
+      <c r="F13">
+        <v>0.9534110037213531</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.028197648785465</v>
+      </c>
+      <c r="J13">
+        <v>0.9662991100629652</v>
+      </c>
+      <c r="K13">
+        <v>1.028750975765279</v>
+      </c>
+      <c r="L13">
+        <v>0.9697191678918762</v>
+      </c>
+      <c r="M13">
+        <v>0.9573528585443665</v>
+      </c>
+      <c r="N13">
+        <v>0.9676713656353118</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.02</v>
+      </c>
+      <c r="C14">
+        <v>0.9605128752060893</v>
+      </c>
+      <c r="D14">
+        <v>1.025163425298074</v>
+      </c>
+      <c r="E14">
+        <v>0.9671349216314452</v>
+      </c>
+      <c r="F14">
+        <v>0.9550148356480366</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.028196389426979</v>
+      </c>
+      <c r="J14">
+        <v>0.9676737575683367</v>
+      </c>
+      <c r="K14">
+        <v>1.028774938309025</v>
+      </c>
+      <c r="L14">
+        <v>0.9709816451978783</v>
+      </c>
+      <c r="M14">
+        <v>0.9589147300863431</v>
+      </c>
+      <c r="N14">
+        <v>0.9690479652978151</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.02</v>
+      </c>
+      <c r="C15">
+        <v>0.9614034314727273</v>
+      </c>
+      <c r="D15">
+        <v>1.025198029374264</v>
+      </c>
+      <c r="E15">
+        <v>0.9679330985122259</v>
+      </c>
+      <c r="F15">
+        <v>0.9559979364329391</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.028195573671255</v>
+      </c>
+      <c r="J15">
+        <v>0.9685162099568203</v>
+      </c>
+      <c r="K15">
+        <v>1.028789675730796</v>
+      </c>
+      <c r="L15">
+        <v>0.9717552794304384</v>
+      </c>
+      <c r="M15">
+        <v>0.9598720602737167</v>
+      </c>
+      <c r="N15">
+        <v>0.969891614065321</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.02</v>
+      </c>
+      <c r="C16">
+        <v>0.9665178694539471</v>
+      </c>
+      <c r="D16">
+        <v>1.025399320714895</v>
+      </c>
+      <c r="E16">
+        <v>0.9725156901775738</v>
+      </c>
+      <c r="F16">
+        <v>0.9616452370859042</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.028190216864643</v>
+      </c>
+      <c r="J16">
+        <v>0.9733530614536017</v>
+      </c>
+      <c r="K16">
+        <v>1.028875045105079</v>
+      </c>
+      <c r="L16">
+        <v>0.976195883662468</v>
+      </c>
+      <c r="M16">
+        <v>0.9653705685715845</v>
+      </c>
+      <c r="N16">
+        <v>0.9747353344460225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.9696677839963934</v>
+      </c>
+      <c r="D17">
+        <v>1.025525478374841</v>
+      </c>
+      <c r="E17">
+        <v>0.975336883953685</v>
+      </c>
+      <c r="F17">
+        <v>0.9651245671890961</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.028186319765488</v>
+      </c>
+      <c r="J17">
+        <v>0.9763308548856949</v>
+      </c>
+      <c r="K17">
+        <v>1.02892823368536</v>
+      </c>
+      <c r="L17">
+        <v>0.9789287275559527</v>
+      </c>
+      <c r="M17">
+        <v>0.9687575661130877</v>
+      </c>
+      <c r="N17">
+        <v>0.9777173566863469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.02</v>
+      </c>
+      <c r="C18">
+        <v>0.9714850378471849</v>
+      </c>
+      <c r="D18">
+        <v>1.025599024633322</v>
+      </c>
+      <c r="E18">
+        <v>0.9769640686024228</v>
+      </c>
+      <c r="F18">
+        <v>0.967132319282564</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.028183852859585</v>
+      </c>
+      <c r="J18">
+        <v>0.9780483928416045</v>
+      </c>
+      <c r="K18">
+        <v>1.028959126925033</v>
+      </c>
+      <c r="L18">
+        <v>0.9805046204782536</v>
+      </c>
+      <c r="M18">
+        <v>0.9707118006498168</v>
+      </c>
+      <c r="N18">
+        <v>0.9794373337431582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.02</v>
+      </c>
+      <c r="C19">
+        <v>0.9721013613780306</v>
+      </c>
+      <c r="D19">
+        <v>1.025624095254975</v>
+      </c>
+      <c r="E19">
+        <v>0.9775158578081515</v>
+      </c>
+      <c r="F19">
+        <v>0.9678133277376976</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.028182978809425</v>
+      </c>
+      <c r="J19">
+        <v>0.978630827294583</v>
+      </c>
+      <c r="K19">
+        <v>1.028969638492465</v>
+      </c>
+      <c r="L19">
+        <v>0.981038959968239</v>
+      </c>
+      <c r="M19">
+        <v>0.9713746164040274</v>
+      </c>
+      <c r="N19">
+        <v>0.9800205953198662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.02</v>
+      </c>
+      <c r="C20">
+        <v>0.9693319212360824</v>
+      </c>
+      <c r="D20">
+        <v>1.025511946906639</v>
+      </c>
+      <c r="E20">
+        <v>0.9750361152217983</v>
+      </c>
+      <c r="F20">
+        <v>0.9647535334624762</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.028186757925705</v>
+      </c>
+      <c r="J20">
+        <v>0.9760133879045572</v>
+      </c>
+      <c r="K20">
+        <v>1.028922540567341</v>
+      </c>
+      <c r="L20">
+        <v>0.978637412617706</v>
+      </c>
+      <c r="M20">
+        <v>0.9683964033044213</v>
+      </c>
+      <c r="N20">
+        <v>0.9773994388656819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.02</v>
+      </c>
+      <c r="C21">
+        <v>0.9600859869466861</v>
+      </c>
+      <c r="D21">
+        <v>1.025146884520152</v>
+      </c>
+      <c r="E21">
+        <v>0.9667522921095373</v>
+      </c>
+      <c r="F21">
+        <v>0.9545436105721294</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.028196768571165</v>
+      </c>
+      <c r="J21">
+        <v>0.9672699041061134</v>
+      </c>
+      <c r="K21">
+        <v>1.028767887494854</v>
+      </c>
+      <c r="L21">
+        <v>0.9706107614573473</v>
+      </c>
+      <c r="M21">
+        <v>0.9584558439532331</v>
+      </c>
+      <c r="N21">
+        <v>0.9686435383173526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.02</v>
+      </c>
+      <c r="C22">
+        <v>0.9540709107520832</v>
+      </c>
+      <c r="D22">
+        <v>1.024917017289605</v>
+      </c>
+      <c r="E22">
+        <v>0.9613592925291401</v>
+      </c>
+      <c r="F22">
+        <v>0.9479054187673437</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.028201323127522</v>
+      </c>
+      <c r="J22">
+        <v>0.9615777981805639</v>
+      </c>
+      <c r="K22">
+        <v>1.028669484195791</v>
+      </c>
+      <c r="L22">
+        <v>0.9653819973732639</v>
+      </c>
+      <c r="M22">
+        <v>0.9519905601641876</v>
+      </c>
+      <c r="N22">
+        <v>0.9629433489484955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.02</v>
+      </c>
+      <c r="C23">
+        <v>0.9572798556983286</v>
+      </c>
+      <c r="D23">
+        <v>1.025038905493158</v>
+      </c>
+      <c r="E23">
+        <v>0.9642367247431528</v>
+      </c>
+      <c r="F23">
+        <v>0.9514464178477567</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.028199073251875</v>
+      </c>
+      <c r="J23">
+        <v>0.9646148121753957</v>
+      </c>
+      <c r="K23">
+        <v>1.028721759700692</v>
+      </c>
+      <c r="L23">
+        <v>0.9681721051668799</v>
+      </c>
+      <c r="M23">
+        <v>0.9554395349172436</v>
+      </c>
+      <c r="N23">
+        <v>0.9659846758515501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.02</v>
+      </c>
+      <c r="C24">
+        <v>0.9694837448603313</v>
+      </c>
+      <c r="D24">
+        <v>1.025518061316701</v>
+      </c>
+      <c r="E24">
+        <v>0.9751720762327452</v>
+      </c>
+      <c r="F24">
+        <v>0.9649212543907153</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.028186560538906</v>
+      </c>
+      <c r="J24">
+        <v>0.9761568971781776</v>
+      </c>
+      <c r="K24">
+        <v>1.028925113446604</v>
+      </c>
+      <c r="L24">
+        <v>0.9787691011244772</v>
+      </c>
+      <c r="M24">
+        <v>0.968559662948978</v>
+      </c>
+      <c r="N24">
+        <v>0.9775431519389318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.02</v>
+      </c>
+      <c r="C25">
+        <v>0.9828674098098618</v>
+      </c>
+      <c r="D25">
+        <v>1.026072541693807</v>
+      </c>
+      <c r="E25">
+        <v>0.9871483364053398</v>
+      </c>
+      <c r="F25">
+        <v>0.9797160724965627</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.028164434695646</v>
+      </c>
+      <c r="J25">
+        <v>0.988798886372216</v>
+      </c>
+      <c r="K25">
+        <v>1.029155958733625</v>
+      </c>
+      <c r="L25">
+        <v>0.9903620470570647</v>
+      </c>
+      <c r="M25">
+        <v>0.982955958318781</v>
+      </c>
+      <c r="N25">
+        <v>0.9902030942076822</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_50/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,164 +412,1289 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9764231591050289</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.039412830161554</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9860919287673887</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.033182178955845</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.051028562347288</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.9993326670865847</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.05034908815717</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.9977484870485569</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.044197807355839</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.003708819758111</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.043551984029832</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.046671407457423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9804648733517688</v>
+      </c>
+      <c r="D3">
+        <v>1.041196821144411</v>
+      </c>
+      <c r="E3">
+        <v>0.9892648479365358</v>
+      </c>
+      <c r="F3">
+        <v>1.035475698821001</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.051332204943763</v>
+      </c>
+      <c r="J3">
+        <v>1.001502632766635</v>
+      </c>
+      <c r="K3">
+        <v>1.051328379335388</v>
+      </c>
+      <c r="L3">
+        <v>1.000036955167435</v>
+      </c>
+      <c r="M3">
+        <v>1.045673924192391</v>
+      </c>
+      <c r="N3">
+        <v>1.004457919603549</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.044720225681097</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.047361197106354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9830334535535211</v>
+      </c>
+      <c r="D4">
+        <v>1.042335597769103</v>
+      </c>
+      <c r="E4">
+        <v>0.9912878877188783</v>
+      </c>
+      <c r="F4">
+        <v>1.036941058764538</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.051515614911773</v>
+      </c>
+      <c r="J4">
+        <v>1.002881353271439</v>
+      </c>
+      <c r="K4">
+        <v>1.05194857022482</v>
+      </c>
+      <c r="L4">
+        <v>1.0014926101119</v>
+      </c>
+      <c r="M4">
+        <v>1.046613179454371</v>
+      </c>
+      <c r="N4">
+        <v>1.004933382608368</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045463578549547</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.047800600415328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9841031686541584</v>
+      </c>
+      <c r="D5">
+        <v>1.04281525260344</v>
+      </c>
+      <c r="E5">
+        <v>0.9921320449598791</v>
+      </c>
+      <c r="F5">
+        <v>1.037555059718813</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.051591523141564</v>
+      </c>
+      <c r="J5">
+        <v>1.003455729344616</v>
+      </c>
+      <c r="K5">
+        <v>1.052210650642616</v>
+      </c>
+      <c r="L5">
+        <v>1.00209935577753</v>
+      </c>
+      <c r="M5">
+        <v>1.047006627899442</v>
+      </c>
+      <c r="N5">
+        <v>1.005131446017708</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.045774964422802</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.047993002707644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9842829878719072</v>
+      </c>
+      <c r="D6">
+        <v>1.042901154809145</v>
+      </c>
+      <c r="E6">
+        <v>0.9922741584945027</v>
+      </c>
+      <c r="F6">
+        <v>1.037660745864418</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.051606414377542</v>
+      </c>
+      <c r="J6">
+        <v>1.003552638993303</v>
+      </c>
+      <c r="K6">
+        <v>1.052259990554957</v>
+      </c>
+      <c r="L6">
+        <v>1.002201662095162</v>
+      </c>
+      <c r="M6">
+        <v>1.047075289204669</v>
+      </c>
+      <c r="N6">
+        <v>1.005164988010913</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.045829304846388</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.048036540873658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9830500281508506</v>
+      </c>
+      <c r="D7">
+        <v>1.04235693712551</v>
+      </c>
+      <c r="E7">
+        <v>0.9913012906868844</v>
+      </c>
+      <c r="F7">
+        <v>1.036956855221606</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.0515228570927</v>
+      </c>
+      <c r="J7">
+        <v>1.002891230168044</v>
+      </c>
+      <c r="K7">
+        <v>1.051966837984691</v>
+      </c>
+      <c r="L7">
+        <v>1.001502810573801</v>
+      </c>
+      <c r="M7">
+        <v>1.046625942802786</v>
+      </c>
+      <c r="N7">
+        <v>1.004937148741596</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.045473679815054</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047833413093489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9778017717184284</v>
+      </c>
+      <c r="D8">
+        <v>1.040037234429387</v>
+      </c>
+      <c r="E8">
+        <v>0.9871732256325805</v>
+      </c>
+      <c r="F8">
+        <v>1.033970316804734</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.051141456493237</v>
+      </c>
+      <c r="J8">
+        <v>1.000074096008308</v>
+      </c>
+      <c r="K8">
+        <v>1.050700869358058</v>
+      </c>
+      <c r="L8">
+        <v>0.998529793424542</v>
+      </c>
+      <c r="M8">
+        <v>1.044708989258231</v>
+      </c>
+      <c r="N8">
+        <v>1.003965342485069</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043956548416082</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.046942796488736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9681748554809603</v>
+      </c>
+      <c r="D9">
+        <v>1.035804345823975</v>
+      </c>
+      <c r="E9">
+        <v>0.979654865342607</v>
+      </c>
+      <c r="F9">
+        <v>1.028548353911708</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.050358910014451</v>
+      </c>
+      <c r="J9">
+        <v>0.9949037584823416</v>
+      </c>
+      <c r="K9">
+        <v>1.048342054420592</v>
+      </c>
+      <c r="L9">
+        <v>0.9930868843973364</v>
+      </c>
+      <c r="M9">
+        <v>1.041194632524636</v>
+      </c>
+      <c r="N9">
+        <v>1.002177517529793</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.04117517862944</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.045271863309281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9615050870239902</v>
+      </c>
+      <c r="D10">
+        <v>1.032962504973586</v>
+      </c>
+      <c r="E10">
+        <v>0.9744893231051641</v>
+      </c>
+      <c r="F10">
+        <v>1.024938769393883</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.049795187663888</v>
+      </c>
+      <c r="J10">
+        <v>0.9913338767751663</v>
+      </c>
+      <c r="K10">
+        <v>1.046761067312732</v>
+      </c>
+      <c r="L10">
+        <v>0.9893349804293485</v>
+      </c>
+      <c r="M10">
+        <v>1.038871887189938</v>
+      </c>
+      <c r="N10">
+        <v>1.000943766225443</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039388262459177</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.044170656294664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="B11">
+        <v>1.049999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.95874767771656</v>
+      </c>
+      <c r="D11">
+        <v>1.032214619552132</v>
+      </c>
+      <c r="E11">
+        <v>0.972392682979236</v>
+      </c>
+      <c r="F11">
+        <v>1.024208903923501</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.04973561602084</v>
+      </c>
+      <c r="J11">
+        <v>0.9899433275668947</v>
+      </c>
+      <c r="K11">
+        <v>1.046553554732351</v>
+      </c>
+      <c r="L11">
+        <v>0.9878547134899668</v>
+      </c>
+      <c r="M11">
+        <v>1.038688274439902</v>
+      </c>
+      <c r="N11">
+        <v>1.000486580998572</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.039678558267448</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.044056395922722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9577751953444105</v>
+      </c>
+      <c r="D12">
+        <v>1.032098920160033</v>
+      </c>
+      <c r="E12">
+        <v>0.9716662656592985</v>
+      </c>
+      <c r="F12">
+        <v>1.024225197100957</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.049771406633643</v>
+      </c>
+      <c r="J12">
+        <v>0.9894806918482276</v>
+      </c>
+      <c r="K12">
+        <v>1.046635953404741</v>
+      </c>
+      <c r="L12">
+        <v>0.9873572000408821</v>
+      </c>
+      <c r="M12">
+        <v>1.038902545850389</v>
+      </c>
+      <c r="N12">
+        <v>1.000346845712763</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.040173961878136</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.044114653130993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9581175653989357</v>
+      </c>
+      <c r="D13">
+        <v>1.032483240158554</v>
+      </c>
+      <c r="E13">
+        <v>0.9719479787031305</v>
+      </c>
+      <c r="F13">
+        <v>1.024840230883902</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.049896799107867</v>
+      </c>
+      <c r="J13">
+        <v>0.9897071177517396</v>
+      </c>
+      <c r="K13">
+        <v>1.046971458654098</v>
+      </c>
+      <c r="L13">
+        <v>0.9875871772149919</v>
+      </c>
+      <c r="M13">
+        <v>1.039464028104919</v>
+      </c>
+      <c r="N13">
+        <v>1.000444483787208</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.040894201735582</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.044349398909612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9589526422413338</v>
+      </c>
+      <c r="D14">
+        <v>1.032978969203744</v>
+      </c>
+      <c r="E14">
+        <v>0.9726016792961859</v>
+      </c>
+      <c r="F14">
+        <v>1.025540221022568</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.050024430011853</v>
+      </c>
+      <c r="J14">
+        <v>0.9901769366443024</v>
+      </c>
+      <c r="K14">
+        <v>1.047320833413962</v>
+      </c>
+      <c r="L14">
+        <v>0.9880771445110573</v>
+      </c>
+      <c r="M14">
+        <v>1.040012399881272</v>
+      </c>
+      <c r="N14">
+        <v>1.000620162896214</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.041500773884676</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.04459781960286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9594425807879762</v>
+      </c>
+      <c r="D15">
+        <v>1.033219454653866</v>
+      </c>
+      <c r="E15">
+        <v>0.9729813105253308</v>
+      </c>
+      <c r="F15">
+        <v>1.025857887419798</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.050080021003098</v>
+      </c>
+      <c r="J15">
+        <v>0.990443665826755</v>
+      </c>
+      <c r="K15">
+        <v>1.047472357500413</v>
+      </c>
+      <c r="L15">
+        <v>0.9883565265647273</v>
+      </c>
+      <c r="M15">
+        <v>1.040238785100037</v>
+      </c>
+      <c r="N15">
+        <v>1.000715411360206</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041717198357217</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.044710748053362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9621986184151744</v>
+      </c>
+      <c r="D16">
+        <v>1.034362613735456</v>
+      </c>
+      <c r="E16">
+        <v>0.9751041960332779</v>
+      </c>
+      <c r="F16">
+        <v>1.027307078875188</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.050315756345384</v>
+      </c>
+      <c r="J16">
+        <v>0.9919147841914897</v>
+      </c>
+      <c r="K16">
+        <v>1.048103031971313</v>
+      </c>
+      <c r="L16">
+        <v>0.9898999378974458</v>
+      </c>
+      <c r="M16">
+        <v>1.041164915670867</v>
+      </c>
+      <c r="N16">
+        <v>1.001220068999551</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.042410540787685</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.045159779216892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9638773383531026</v>
+      </c>
+      <c r="D17">
+        <v>1.034980817896311</v>
+      </c>
+      <c r="E17">
+        <v>0.9763938032359598</v>
+      </c>
+      <c r="F17">
+        <v>1.028047955157651</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.050427224839518</v>
+      </c>
+      <c r="J17">
+        <v>0.9927981002747133</v>
+      </c>
+      <c r="K17">
+        <v>1.048402099619836</v>
+      </c>
+      <c r="L17">
+        <v>0.9908287939385475</v>
+      </c>
+      <c r="M17">
+        <v>1.041581447127983</v>
+      </c>
+      <c r="N17">
+        <v>1.00151532552709</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.042610904253087</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.045373787229394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9647912704195792</v>
+      </c>
+      <c r="D18">
+        <v>1.035172139808115</v>
+      </c>
+      <c r="E18">
+        <v>0.9770865569851732</v>
+      </c>
+      <c r="F18">
+        <v>1.028195438694553</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.050428949752203</v>
+      </c>
+      <c r="J18">
+        <v>0.9932537379134564</v>
+      </c>
+      <c r="K18">
+        <v>1.048410171116033</v>
+      </c>
+      <c r="L18">
+        <v>0.9913128859058045</v>
+      </c>
+      <c r="M18">
+        <v>1.041544605145414</v>
+      </c>
+      <c r="N18">
+        <v>1.001656343026502</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.042344417817017</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.045367998566707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9650019510241508</v>
+      </c>
+      <c r="D19">
+        <v>1.034985772601783</v>
+      </c>
+      <c r="E19">
+        <v>0.9772296431168618</v>
+      </c>
+      <c r="F19">
+        <v>1.027790644158203</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.050331858187205</v>
+      </c>
+      <c r="J19">
+        <v>0.99331281067904</v>
+      </c>
+      <c r="K19">
+        <v>1.048165290928753</v>
+      </c>
+      <c r="L19">
+        <v>0.9913866241320993</v>
+      </c>
+      <c r="M19">
+        <v>1.041084251130741</v>
+      </c>
+      <c r="N19">
+        <v>1.001657374582912</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.041655392334676</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.045201183839617</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9632396066479888</v>
+      </c>
+      <c r="D20">
+        <v>1.033734089639258</v>
+      </c>
+      <c r="E20">
+        <v>0.9758307487379472</v>
+      </c>
+      <c r="F20">
+        <v>1.025891936365279</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.049960100318482</v>
+      </c>
+      <c r="J20">
+        <v>0.9922650101210537</v>
+      </c>
+      <c r="K20">
+        <v>1.047208614036615</v>
+      </c>
+      <c r="L20">
+        <v>0.9903123291725092</v>
+      </c>
+      <c r="M20">
+        <v>1.039494289652275</v>
+      </c>
+      <c r="N20">
+        <v>1.001266901518506</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.039870290241939</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.044528665106497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9581895580567134</v>
+      </c>
+      <c r="D21">
+        <v>1.031509918016027</v>
+      </c>
+      <c r="E21">
+        <v>0.9719287837832574</v>
+      </c>
+      <c r="F21">
+        <v>1.023027873687248</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.049479113390686</v>
+      </c>
+      <c r="J21">
+        <v>0.9895456827652305</v>
+      </c>
+      <c r="K21">
+        <v>1.04591794379735</v>
+      </c>
+      <c r="L21">
+        <v>0.9874622310487149</v>
+      </c>
+      <c r="M21">
+        <v>1.037585725956052</v>
+      </c>
+      <c r="N21">
+        <v>1.000322250631779</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.03831896805804</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.043619312236648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9549583007120342</v>
+      </c>
+      <c r="D22">
+        <v>1.030109060368131</v>
+      </c>
+      <c r="E22">
+        <v>0.9694428330712315</v>
+      </c>
+      <c r="F22">
+        <v>1.021250728530217</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.049168875675375</v>
+      </c>
+      <c r="J22">
+        <v>0.9878111057058163</v>
+      </c>
+      <c r="K22">
+        <v>1.04510675254182</v>
+      </c>
+      <c r="L22">
+        <v>0.9856449501541089</v>
+      </c>
+      <c r="M22">
+        <v>1.036412640740153</v>
+      </c>
+      <c r="N22">
+        <v>0.9997201884496024</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.037390546338892</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.043032425019436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9566756595193529</v>
+      </c>
+      <c r="D23">
+        <v>1.030840954982643</v>
+      </c>
+      <c r="E23">
+        <v>0.970762786717377</v>
+      </c>
+      <c r="F23">
+        <v>1.02218931716058</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.049329634732637</v>
+      </c>
+      <c r="J23">
+        <v>0.9887320339867574</v>
+      </c>
+      <c r="K23">
+        <v>1.045525985567106</v>
+      </c>
+      <c r="L23">
+        <v>0.9866097344147057</v>
+      </c>
+      <c r="M23">
+        <v>1.037030713317798</v>
+      </c>
+      <c r="N23">
+        <v>1.000039455217823</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.037879711297973</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.043319313836454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9632992143607372</v>
+      </c>
+      <c r="D24">
+        <v>1.033701275222465</v>
+      </c>
+      <c r="E24">
+        <v>0.9758735402690992</v>
+      </c>
+      <c r="F24">
+        <v>1.025842356027034</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.049939465959554</v>
+      </c>
+      <c r="J24">
+        <v>0.9922870843873579</v>
+      </c>
+      <c r="K24">
+        <v>1.047161324145559</v>
+      </c>
+      <c r="L24">
+        <v>0.990338018320619</v>
+      </c>
+      <c r="M24">
+        <v>1.039430356540118</v>
+      </c>
+      <c r="N24">
+        <v>1.001271897714333</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.039778872433889</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.044468139096934</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9707142951651749</v>
+      </c>
+      <c r="D25">
+        <v>1.036936128011098</v>
+      </c>
+      <c r="E25">
+        <v>0.981632025294507</v>
+      </c>
+      <c r="F25">
+        <v>1.029979230474316</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.050582589354339</v>
+      </c>
+      <c r="J25">
+        <v>0.9962690968989213</v>
+      </c>
+      <c r="K25">
+        <v>1.048986893349896</v>
+      </c>
+      <c r="L25">
+        <v>0.9945223337819665</v>
+      </c>
+      <c r="M25">
+        <v>1.042129323543225</v>
+      </c>
+      <c r="N25">
+        <v>1.00265066374653</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.041914922831045</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.045756055884071</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_50/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9764231591050289</v>
+        <v>0.977405204276962</v>
       </c>
       <c r="D2">
-        <v>1.039412830161554</v>
+        <v>1.036803368470274</v>
       </c>
       <c r="E2">
-        <v>0.9860919287673887</v>
+        <v>0.9869358570498277</v>
       </c>
       <c r="F2">
-        <v>1.033182178955845</v>
+        <v>1.031815972274362</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051028562347288</v>
+        <v>1.049956078013946</v>
       </c>
       <c r="J2">
-        <v>0.9993326670865847</v>
+        <v>1.000283383384368</v>
       </c>
       <c r="K2">
-        <v>1.05034908815717</v>
+        <v>1.047772722614496</v>
       </c>
       <c r="L2">
-        <v>0.9977484870485569</v>
+        <v>0.9985802473518244</v>
       </c>
       <c r="M2">
-        <v>1.044197807355839</v>
+        <v>1.042849164613024</v>
       </c>
       <c r="N2">
-        <v>1.003708819758111</v>
+        <v>1.007268828171586</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043551984029832</v>
+        <v>1.042484627434569</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.046671407457423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044858415083777</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024764899723626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9804648733517688</v>
+        <v>0.9813704331169617</v>
       </c>
       <c r="D3">
-        <v>1.041196821144411</v>
+        <v>1.03845962759015</v>
       </c>
       <c r="E3">
-        <v>0.9892648479365358</v>
+        <v>0.9900439387884536</v>
       </c>
       <c r="F3">
-        <v>1.035475698821001</v>
+        <v>1.034022950007927</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051332204943763</v>
+        <v>1.050205849988995</v>
       </c>
       <c r="J3">
-        <v>1.001502632766635</v>
+        <v>1.002382172199293</v>
       </c>
       <c r="K3">
-        <v>1.051328379335388</v>
+        <v>1.048622968460309</v>
       </c>
       <c r="L3">
-        <v>1.000036955167435</v>
+        <v>1.000805814492461</v>
       </c>
       <c r="M3">
-        <v>1.045673924192391</v>
+        <v>1.044238249379621</v>
       </c>
       <c r="N3">
-        <v>1.004457919603549</v>
+        <v>1.007846828266448</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044720225681097</v>
+        <v>1.043583991044621</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.047361197106354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045456688099674</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024892411202391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9830334535535211</v>
+        <v>0.9838910920052334</v>
       </c>
       <c r="D4">
-        <v>1.042335597769103</v>
+        <v>1.039517488032791</v>
       </c>
       <c r="E4">
-        <v>0.9912878877188783</v>
+        <v>0.9920262588345147</v>
       </c>
       <c r="F4">
-        <v>1.036941058764538</v>
+        <v>1.035433526509741</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051515614911773</v>
+        <v>1.050355034382579</v>
       </c>
       <c r="J4">
-        <v>1.002881353271439</v>
+        <v>1.003716038571554</v>
       </c>
       <c r="K4">
-        <v>1.05194857022482</v>
+        <v>1.04916126549387</v>
       </c>
       <c r="L4">
-        <v>1.0014926101119</v>
+        <v>1.002221882191676</v>
       </c>
       <c r="M4">
-        <v>1.046613179454371</v>
+        <v>1.045122311941658</v>
       </c>
       <c r="N4">
-        <v>1.004933382608368</v>
+        <v>1.008213791938317</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045463578549547</v>
+        <v>1.044283663975424</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047800600415328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045838273159525</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024970539738482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9841031686541584</v>
+        <v>0.9849409774184977</v>
       </c>
       <c r="D5">
-        <v>1.04281525260344</v>
+        <v>1.039963391464464</v>
       </c>
       <c r="E5">
-        <v>0.9921320449598791</v>
+        <v>0.9928535417803973</v>
       </c>
       <c r="F5">
-        <v>1.037555059718813</v>
+        <v>1.036024733147015</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051591523141564</v>
+        <v>1.050416658910625</v>
       </c>
       <c r="J5">
-        <v>1.003455729344616</v>
+        <v>1.004271794597838</v>
       </c>
       <c r="K5">
-        <v>1.052210650642616</v>
+        <v>1.049389156289288</v>
       </c>
       <c r="L5">
-        <v>1.00209935577753</v>
+        <v>1.002812203333838</v>
       </c>
       <c r="M5">
-        <v>1.047006627899442</v>
+        <v>1.045492773966303</v>
       </c>
       <c r="N5">
-        <v>1.005131446017708</v>
+        <v>1.008366672471859</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.045774964422802</v>
+        <v>1.04457685824187</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047993002707644</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046007218809608</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02500352843129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9842829878719072</v>
+        <v>0.9851174381649275</v>
       </c>
       <c r="D6">
-        <v>1.042901154809145</v>
+        <v>1.040043478839525</v>
       </c>
       <c r="E6">
-        <v>0.9922741584945027</v>
+        <v>0.9929927919062239</v>
       </c>
       <c r="F6">
-        <v>1.037660745864418</v>
+        <v>1.036126553216793</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051606414377542</v>
+        <v>1.050429107472207</v>
       </c>
       <c r="J6">
-        <v>1.003552638993303</v>
+        <v>1.004365545650169</v>
       </c>
       <c r="K6">
-        <v>1.052259990554957</v>
+        <v>1.049432607610023</v>
       </c>
       <c r="L6">
-        <v>1.002201662095162</v>
+        <v>1.002911720813757</v>
       </c>
       <c r="M6">
-        <v>1.047075289204669</v>
+        <v>1.045557536266398</v>
       </c>
       <c r="N6">
-        <v>1.005164988010913</v>
+        <v>1.00839255422268</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.045829304846388</v>
+        <v>1.044628112970655</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.048036540873658</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046047468838247</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025010444656174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9830500281508506</v>
+        <v>0.9839181208986547</v>
       </c>
       <c r="D7">
-        <v>1.04235693712551</v>
+        <v>1.039539412880312</v>
       </c>
       <c r="E7">
-        <v>0.9913012906868844</v>
+        <v>0.992049044780578</v>
       </c>
       <c r="F7">
-        <v>1.036956855221606</v>
+        <v>1.035452095527404</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.0515228570927</v>
+        <v>1.050362564605938</v>
       </c>
       <c r="J7">
-        <v>1.002891230168044</v>
+        <v>1.003736099922475</v>
       </c>
       <c r="K7">
-        <v>1.051966837984691</v>
+        <v>1.049180100534221</v>
       </c>
       <c r="L7">
-        <v>1.001502810573801</v>
+        <v>1.002241353527478</v>
       </c>
       <c r="M7">
-        <v>1.046625942802786</v>
+        <v>1.045137810986722</v>
       </c>
       <c r="N7">
-        <v>1.004937148741596</v>
+        <v>1.008245774015435</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045473679815054</v>
+        <v>1.04429593036636</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047833413093489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045873500573033</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024975211151292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9778017717184284</v>
+        <v>0.9787909633180093</v>
       </c>
       <c r="D8">
-        <v>1.040037234429387</v>
+        <v>1.037388420832832</v>
       </c>
       <c r="E8">
-        <v>0.9871732256325805</v>
+        <v>0.9880249208636616</v>
       </c>
       <c r="F8">
-        <v>1.033970316804734</v>
+        <v>1.032584568174082</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051141456493237</v>
+        <v>1.050052412407994</v>
       </c>
       <c r="J8">
-        <v>1.000074096008308</v>
+        <v>1.001032807985087</v>
       </c>
       <c r="K8">
-        <v>1.050700869358058</v>
+        <v>1.048084682738322</v>
       </c>
       <c r="L8">
-        <v>0.998529793424542</v>
+        <v>0.9993695833053069</v>
       </c>
       <c r="M8">
-        <v>1.044708989258231</v>
+        <v>1.043340534171436</v>
       </c>
       <c r="N8">
-        <v>1.003965342485069</v>
+        <v>1.007555367740708</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043956548416082</v>
+        <v>1.042873512323693</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046942796488736</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.04510393335625</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024814778359022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,158 +873,185 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9681748554809603</v>
+        <v>0.9693558679105374</v>
       </c>
       <c r="D9">
-        <v>1.035804345823975</v>
+        <v>1.033462557475193</v>
       </c>
       <c r="E9">
-        <v>0.979654865342607</v>
+        <v>0.9806688571295543</v>
       </c>
       <c r="F9">
-        <v>1.028548353911708</v>
+        <v>1.027372024370927</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050358910014451</v>
+        <v>1.049398688164063</v>
       </c>
       <c r="J9">
-        <v>0.9949037584823416</v>
+        <v>0.9960391743722156</v>
       </c>
       <c r="K9">
-        <v>1.048342054420592</v>
+        <v>1.046035093886074</v>
       </c>
       <c r="L9">
-        <v>0.9930868843973364</v>
+        <v>0.9940835533927411</v>
       </c>
       <c r="M9">
-        <v>1.041194632524636</v>
+        <v>1.040036088222087</v>
       </c>
       <c r="N9">
-        <v>1.002177517529793</v>
+        <v>1.006187699938197</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.04117517862944</v>
+        <v>1.040258268767534</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.045271863309281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043651341611804</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024490993628591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.9615050870239902</v>
+        <v>0.9628718679292287</v>
       </c>
       <c r="D10">
-        <v>1.032962504973586</v>
+        <v>1.030835358830869</v>
       </c>
       <c r="E10">
-        <v>0.9744893231051641</v>
+        <v>0.9756623514442919</v>
       </c>
       <c r="F10">
-        <v>1.024938769393883</v>
+        <v>1.023921565095698</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049795187663888</v>
+        <v>1.048924491215512</v>
       </c>
       <c r="J10">
-        <v>0.9913338767751663</v>
+        <v>0.9926401408248647</v>
       </c>
       <c r="K10">
-        <v>1.046761067312732</v>
+        <v>1.044669329827245</v>
       </c>
       <c r="L10">
-        <v>0.9893349804293485</v>
+        <v>0.9904853871747382</v>
       </c>
       <c r="M10">
-        <v>1.038871887189938</v>
+        <v>1.037871935519651</v>
       </c>
       <c r="N10">
-        <v>1.000943766225443</v>
+        <v>1.005369795793804</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039388262459177</v>
+        <v>1.038596915371377</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.044170656294664</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042703986290642</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024268497066802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.95874767771656</v>
+        <v>0.9602647174083688</v>
       </c>
       <c r="D11">
-        <v>1.032214619552132</v>
+        <v>1.030135718406545</v>
       </c>
       <c r="E11">
-        <v>0.972392682979236</v>
+        <v>0.973696897303389</v>
       </c>
       <c r="F11">
-        <v>1.024208903923501</v>
+        <v>1.023262569416665</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04973561602084</v>
+        <v>1.048886369629618</v>
       </c>
       <c r="J11">
-        <v>0.9899433275668947</v>
+        <v>0.9913893344231189</v>
       </c>
       <c r="K11">
-        <v>1.046553554732351</v>
+        <v>1.044510849706984</v>
       </c>
       <c r="L11">
-        <v>0.9878547134899668</v>
+        <v>0.9891325040243071</v>
       </c>
       <c r="M11">
-        <v>1.038688274439902</v>
+        <v>1.037758728878753</v>
       </c>
       <c r="N11">
-        <v>1.000486580998572</v>
+        <v>1.005275113602954</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039678558267448</v>
+        <v>1.0389432989306</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.044056395922722</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042627624991706</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02427874289389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9577751953444105</v>
+        <v>0.9593539838401214</v>
       </c>
       <c r="D12">
-        <v>1.032098920160033</v>
+        <v>1.030018854383025</v>
       </c>
       <c r="E12">
-        <v>0.9716662656592985</v>
+        <v>0.9730241204836995</v>
       </c>
       <c r="F12">
-        <v>1.024225197100957</v>
+        <v>1.023302022495985</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049771406633643</v>
+        <v>1.048924017681958</v>
       </c>
       <c r="J12">
-        <v>0.9894806918482276</v>
+        <v>0.9909840482369254</v>
       </c>
       <c r="K12">
-        <v>1.046635953404741</v>
+        <v>1.044592685405737</v>
       </c>
       <c r="L12">
-        <v>0.9873572000408821</v>
+        <v>0.9886870500873057</v>
       </c>
       <c r="M12">
-        <v>1.038902545850389</v>
+        <v>1.037996006743057</v>
       </c>
       <c r="N12">
-        <v>1.000346845712763</v>
+        <v>1.005281933910075</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040173961878136</v>
+        <v>1.039457142576211</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.044114653130993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.042685483184765</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024313171705906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9581175653989357</v>
+        <v>0.9596768947390739</v>
       </c>
       <c r="D13">
-        <v>1.032483240158554</v>
+        <v>1.030360113388035</v>
       </c>
       <c r="E13">
-        <v>0.9719479787031305</v>
+        <v>0.9732879146794368</v>
       </c>
       <c r="F13">
-        <v>1.024840230883902</v>
+        <v>1.023898277553428</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049896799107867</v>
+        <v>1.049035016998451</v>
       </c>
       <c r="J13">
-        <v>0.9897071177517396</v>
+        <v>0.9911922944888691</v>
       </c>
       <c r="K13">
-        <v>1.046971458654098</v>
+        <v>1.044885732210278</v>
       </c>
       <c r="L13">
-        <v>0.9875871772149919</v>
+        <v>0.9888995920242482</v>
       </c>
       <c r="M13">
-        <v>1.039464028104919</v>
+        <v>1.038538966031509</v>
       </c>
       <c r="N13">
-        <v>1.000444483787208</v>
+        <v>1.005330224167065</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040894201735582</v>
+        <v>1.040162919425792</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.044349398909612</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042889962427172</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024375632218492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9589526422413338</v>
+        <v>0.9604622276005432</v>
       </c>
       <c r="D14">
-        <v>1.032978969203744</v>
+        <v>1.030807487843331</v>
       </c>
       <c r="E14">
-        <v>0.9726016792961859</v>
+        <v>0.9738973318693935</v>
       </c>
       <c r="F14">
-        <v>1.025540221022568</v>
+        <v>1.024566773101813</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050024430011853</v>
+        <v>1.049145789317361</v>
       </c>
       <c r="J14">
-        <v>0.9901769366443024</v>
+        <v>0.9916157787455178</v>
       </c>
       <c r="K14">
-        <v>1.047320833413962</v>
+        <v>1.045187141114548</v>
       </c>
       <c r="L14">
-        <v>0.9880771445110573</v>
+        <v>0.9893465265791713</v>
       </c>
       <c r="M14">
-        <v>1.040012399881272</v>
+        <v>1.039056186815673</v>
       </c>
       <c r="N14">
-        <v>1.000620162896214</v>
+        <v>1.005383864210466</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041500773884676</v>
+        <v>1.040744967948975</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.04459781960286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.04310460648019</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024431864724686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9594425807879762</v>
+        <v>0.9609232105741664</v>
       </c>
       <c r="D15">
-        <v>1.033219454653866</v>
+        <v>1.031026405509256</v>
       </c>
       <c r="E15">
-        <v>0.9729813105253308</v>
+        <v>0.9742514194148655</v>
       </c>
       <c r="F15">
-        <v>1.025857887419798</v>
+        <v>1.024867386202134</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050080021003098</v>
+        <v>1.049193364505373</v>
       </c>
       <c r="J15">
-        <v>0.990443665826755</v>
+        <v>0.9918555314266699</v>
       </c>
       <c r="K15">
-        <v>1.047472357500413</v>
+        <v>1.045317191356602</v>
       </c>
       <c r="L15">
-        <v>0.9883565265647273</v>
+        <v>0.9896010864651295</v>
       </c>
       <c r="M15">
-        <v>1.040238785100037</v>
+        <v>1.039265687546108</v>
       </c>
       <c r="N15">
-        <v>1.000715411360206</v>
+        <v>1.005409560930117</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041717198357217</v>
+        <v>1.040948066902493</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.044710748053362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043202926276879</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024454828865767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9621986184151744</v>
+        <v>0.9635288481560661</v>
       </c>
       <c r="D16">
-        <v>1.034362613735456</v>
+        <v>1.032074508059247</v>
       </c>
       <c r="E16">
-        <v>0.9751041960332779</v>
+        <v>0.9762428363874397</v>
       </c>
       <c r="F16">
-        <v>1.027307078875188</v>
+        <v>1.02622734478912</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050315756345384</v>
+        <v>1.04938947596288</v>
       </c>
       <c r="J16">
-        <v>0.9919147841914897</v>
+        <v>0.9931864237312423</v>
       </c>
       <c r="K16">
-        <v>1.048103031971313</v>
+        <v>1.045852778594537</v>
       </c>
       <c r="L16">
-        <v>0.9898999378974458</v>
+        <v>0.991016719982755</v>
       </c>
       <c r="M16">
-        <v>1.041164915670867</v>
+        <v>1.040103334278164</v>
       </c>
       <c r="N16">
-        <v>1.001220068999551</v>
+        <v>1.005562737046098</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042410540787685</v>
+        <v>1.041571448410283</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.045159779216892</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043585034488264</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024545270590614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9638773383531026</v>
+        <v>0.965131199359374</v>
       </c>
       <c r="D17">
-        <v>1.034980817896311</v>
+        <v>1.032646863255444</v>
       </c>
       <c r="E17">
-        <v>0.9763938032359598</v>
+        <v>0.9774663168922152</v>
       </c>
       <c r="F17">
-        <v>1.028047955157651</v>
+        <v>1.026920477823716</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050427224839518</v>
+        <v>1.049479754589685</v>
       </c>
       <c r="J17">
-        <v>0.9927981002747133</v>
+        <v>0.9939985745858571</v>
       </c>
       <c r="K17">
-        <v>1.048402099619836</v>
+        <v>1.04610570474252</v>
       </c>
       <c r="L17">
-        <v>0.9908287939385475</v>
+        <v>0.9918813258122977</v>
       </c>
       <c r="M17">
-        <v>1.041581447127983</v>
+        <v>1.040472402444561</v>
       </c>
       <c r="N17">
-        <v>1.00151532552709</v>
+        <v>1.005683311963959</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042610904253087</v>
+        <v>1.04173420896438</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.045373787229394</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043766671419363</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024584476559436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9647912704195792</v>
+        <v>0.9660096770501978</v>
       </c>
       <c r="D18">
-        <v>1.035172139808115</v>
+        <v>1.03283112970872</v>
       </c>
       <c r="E18">
-        <v>0.9770865569851732</v>
+        <v>0.978128876615007</v>
       </c>
       <c r="F18">
-        <v>1.028195438694553</v>
+        <v>1.027048014269513</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050428949752203</v>
+        <v>1.049475053972009</v>
       </c>
       <c r="J18">
-        <v>0.9932537379134564</v>
+        <v>0.9944212878643626</v>
       </c>
       <c r="K18">
-        <v>1.048410171116033</v>
+        <v>1.046106237641477</v>
       </c>
       <c r="L18">
-        <v>0.9913128859058045</v>
+        <v>0.9923361244791091</v>
       </c>
       <c r="M18">
-        <v>1.041544605145414</v>
+        <v>1.040415644101869</v>
       </c>
       <c r="N18">
-        <v>1.001656343026502</v>
+        <v>1.005746049382214</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042344417817017</v>
+        <v>1.041451793063037</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.045367998566707</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.04375441150183</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02457396234223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9650019510241508</v>
+        <v>0.9662150949961307</v>
       </c>
       <c r="D19">
-        <v>1.034985772601783</v>
+        <v>1.032672859396848</v>
       </c>
       <c r="E19">
-        <v>0.9772296431168618</v>
+        <v>0.9782680379831926</v>
       </c>
       <c r="F19">
-        <v>1.027790644158203</v>
+        <v>1.02664863706377</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050331858187205</v>
+        <v>1.049386467721566</v>
       </c>
       <c r="J19">
-        <v>0.99331281067904</v>
+        <v>0.9944756475093595</v>
       </c>
       <c r="K19">
-        <v>1.048165290928753</v>
+        <v>1.045888830140344</v>
       </c>
       <c r="L19">
-        <v>0.9913866241320993</v>
+        <v>0.992406119648036</v>
       </c>
       <c r="M19">
-        <v>1.041084251130741</v>
+        <v>1.039960540722093</v>
       </c>
       <c r="N19">
-        <v>1.001657374582912</v>
+        <v>1.00573506961054</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041655392334676</v>
+        <v>1.04076662926833</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.045201183839617</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.043607650568297</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024517815581174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9632396066479888</v>
+        <v>0.9645268424904377</v>
       </c>
       <c r="D20">
-        <v>1.033734089639258</v>
+        <v>1.031544857536132</v>
       </c>
       <c r="E20">
-        <v>0.9758307487379472</v>
+        <v>0.9769342992276752</v>
       </c>
       <c r="F20">
-        <v>1.025891936365279</v>
+        <v>1.024823000216453</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049960100318482</v>
+        <v>1.049063648987832</v>
       </c>
       <c r="J20">
-        <v>0.9922650101210537</v>
+        <v>0.9934971645686635</v>
       </c>
       <c r="K20">
-        <v>1.047208614036615</v>
+        <v>1.045054815770453</v>
       </c>
       <c r="L20">
-        <v>0.9903123291725092</v>
+        <v>0.9913952301948398</v>
       </c>
       <c r="M20">
-        <v>1.039494289652275</v>
+        <v>1.038442972348314</v>
       </c>
       <c r="N20">
-        <v>1.001266901518506</v>
+        <v>1.005506919069103</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039870290241939</v>
+        <v>1.039038283047799</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.044528665106497</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.043022248337259</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024335258200505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9581895580567134</v>
+        <v>0.9597701432693202</v>
       </c>
       <c r="D21">
-        <v>1.031509918016027</v>
+        <v>1.029517948739591</v>
       </c>
       <c r="E21">
-        <v>0.9719287837832574</v>
+        <v>0.9732905621986285</v>
       </c>
       <c r="F21">
-        <v>1.023027873687248</v>
+        <v>1.022133420055078</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049479113390686</v>
+        <v>1.048664307976301</v>
       </c>
       <c r="J21">
-        <v>0.9895456827652305</v>
+        <v>0.9910517672489638</v>
       </c>
       <c r="K21">
-        <v>1.04591794379735</v>
+        <v>1.043960873123998</v>
       </c>
       <c r="L21">
-        <v>0.9874622310487149</v>
+        <v>0.9887962587123559</v>
       </c>
       <c r="M21">
-        <v>1.037585725956052</v>
+        <v>1.036707260152531</v>
       </c>
       <c r="N21">
-        <v>1.000322250631779</v>
+        <v>1.005254622408209</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.03831896805804</v>
+        <v>1.037623718823603</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.043619312236648</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.04225230980254</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024146050636974</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9549583007120342</v>
+        <v>0.9567253708409879</v>
       </c>
       <c r="D22">
-        <v>1.030109060368131</v>
+        <v>1.028241739153574</v>
       </c>
       <c r="E22">
-        <v>0.9694428330712315</v>
+        <v>0.9709690313555839</v>
       </c>
       <c r="F22">
-        <v>1.021250728530217</v>
+        <v>1.020468101927599</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049168875675375</v>
+        <v>1.048405529546636</v>
       </c>
       <c r="J22">
-        <v>0.9878111057058163</v>
+        <v>0.9894898579225045</v>
       </c>
       <c r="K22">
-        <v>1.04510675254182</v>
+        <v>1.043273741945574</v>
       </c>
       <c r="L22">
-        <v>0.9856449501541089</v>
+        <v>0.9871384009987816</v>
       </c>
       <c r="M22">
-        <v>1.036412640740153</v>
+        <v>1.035644701867588</v>
       </c>
       <c r="N22">
-        <v>0.9997201884496024</v>
+        <v>1.005085613853863</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037390546338892</v>
+        <v>1.036782771313909</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.043032425019436</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041751822175342</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024025856071491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9566756595193529</v>
+        <v>0.9583257759686208</v>
       </c>
       <c r="D23">
-        <v>1.030840954982643</v>
+        <v>1.028904696119579</v>
       </c>
       <c r="E23">
-        <v>0.970762786717377</v>
+        <v>0.9721853675041036</v>
       </c>
       <c r="F23">
-        <v>1.02218931716058</v>
+        <v>1.021341140075601</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049329634732637</v>
+        <v>1.048537868341547</v>
       </c>
       <c r="J23">
-        <v>0.9887320339867574</v>
+        <v>0.9903021824171182</v>
       </c>
       <c r="K23">
-        <v>1.045525985567106</v>
+        <v>1.043624424954962</v>
       </c>
       <c r="L23">
-        <v>0.9866097344147057</v>
+        <v>0.9880026079716497</v>
       </c>
       <c r="M23">
-        <v>1.037030713317798</v>
+        <v>1.036198051454124</v>
       </c>
       <c r="N23">
-        <v>1.000039455217823</v>
+        <v>1.005130191336213</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.037879711297973</v>
+        <v>1.037220712549737</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.043319313836454</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041989297332686</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024086242303398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9632992143607372</v>
+        <v>0.9645847404382482</v>
       </c>
       <c r="D24">
-        <v>1.033701275222465</v>
+        <v>1.031515766614899</v>
       </c>
       <c r="E24">
-        <v>0.9758735402690992</v>
+        <v>0.9769756827255722</v>
       </c>
       <c r="F24">
-        <v>1.025842356027034</v>
+        <v>1.02477412632075</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049939465959554</v>
+        <v>1.049044462928041</v>
       </c>
       <c r="J24">
-        <v>0.9922870843873579</v>
+        <v>0.9935176898263508</v>
       </c>
       <c r="K24">
-        <v>1.047161324145559</v>
+        <v>1.045011146645587</v>
       </c>
       <c r="L24">
-        <v>0.990338018320619</v>
+        <v>0.9914195667570169</v>
       </c>
       <c r="M24">
-        <v>1.039430356540118</v>
+        <v>1.038379713670823</v>
       </c>
       <c r="N24">
-        <v>1.001271897714333</v>
+        <v>1.00550659997228</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039778872433889</v>
+        <v>1.038947357732051</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.044468139096934</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042961591543455</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024322401587325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9707142951651749</v>
+        <v>0.9718304763651207</v>
       </c>
       <c r="D25">
-        <v>1.036936128011098</v>
+        <v>1.03451048184982</v>
       </c>
       <c r="E25">
-        <v>0.981632025294507</v>
+        <v>0.9825905413991342</v>
       </c>
       <c r="F25">
-        <v>1.029979230474316</v>
+        <v>1.02874311204424</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050582589354339</v>
+        <v>1.049587335036351</v>
       </c>
       <c r="J25">
-        <v>0.9962690968989213</v>
+        <v>0.9973445234954222</v>
       </c>
       <c r="K25">
-        <v>1.048986893349896</v>
+        <v>1.046595687656532</v>
       </c>
       <c r="L25">
-        <v>0.9945223337819665</v>
+        <v>0.995465265807935</v>
       </c>
       <c r="M25">
-        <v>1.042129323543225</v>
+        <v>1.040911032002356</v>
       </c>
       <c r="N25">
-        <v>1.00265066374653</v>
+        <v>1.0065150765775</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041914922831045</v>
+        <v>1.040950728006036</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045756055884071</v>
+        <v>1.044078796365032</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02458390927555</v>
       </c>
     </row>
   </sheetData>
